--- a/Code/Results/Cases/Case_0_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7050502957692961</v>
+        <v>0.7050502957692878</v>
       </c>
       <c r="D2">
-        <v>0.7193549241517883</v>
+        <v>0.7193549241517804</v>
       </c>
       <c r="E2">
-        <v>0.7462580441098977</v>
+        <v>0.7462580441098905</v>
       </c>
       <c r="F2">
-        <v>0.6529749905765477</v>
+        <v>0.6529749905765381</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7419163859799329</v>
+        <v>0.7419163859799254</v>
       </c>
       <c r="K2">
-        <v>0.7368688282248322</v>
+        <v>0.7368688282248246</v>
       </c>
       <c r="L2">
-        <v>0.7629188216505092</v>
+        <v>0.7629188216505023</v>
       </c>
       <c r="M2">
-        <v>0.6730283353402192</v>
+        <v>0.6730283353402099</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.7899433186919557</v>
+        <v>0.7899433186919583</v>
       </c>
       <c r="D3">
-        <v>0.8006950811490846</v>
+        <v>0.8006950811490874</v>
       </c>
       <c r="E3">
-        <v>0.8195647579845077</v>
+        <v>0.81956475798451</v>
       </c>
       <c r="F3">
-        <v>0.7546521674792163</v>
+        <v>0.7546521674792189</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8184299624526166</v>
+        <v>0.8184299624526191</v>
       </c>
       <c r="K3">
-        <v>0.814725736340281</v>
+        <v>0.8147257363402837</v>
       </c>
       <c r="L3">
-        <v>0.8331798278653985</v>
+        <v>0.8331798278654008</v>
       </c>
       <c r="M3">
-        <v>0.7698156283653734</v>
+        <v>0.7698156283653761</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,22 +482,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8212898143189914</v>
+        <v>0.8212898143189916</v>
       </c>
       <c r="D4">
-        <v>0.8308388076585201</v>
+        <v>0.8308388076585204</v>
       </c>
       <c r="E4">
-        <v>0.8468680659268334</v>
+        <v>0.8468680659268337</v>
       </c>
       <c r="F4">
-        <v>0.7913520663107952</v>
+        <v>0.7913520663107959</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8467117318934169</v>
+        <v>0.846711731893417</v>
       </c>
       <c r="K4">
         <v>0.8435228545540937</v>
@@ -506,7 +506,7 @@
         <v>0.8592494010164554</v>
       </c>
       <c r="M4">
-        <v>0.8048514430934373</v>
+        <v>0.8048514430934378</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,13 +514,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.832516425591132</v>
+        <v>0.8325164255911318</v>
       </c>
       <c r="D5">
-        <v>0.8416466830697787</v>
+        <v>0.8416466830697784</v>
       </c>
       <c r="E5">
-        <v>0.8566694837341287</v>
+        <v>0.8566694837341283</v>
       </c>
       <c r="F5">
         <v>0.8044261178073601</v>
@@ -532,10 +532,10 @@
         <v>0.8568404115013887</v>
       </c>
       <c r="K5">
-        <v>0.8538390699909163</v>
+        <v>0.8538390699909161</v>
       </c>
       <c r="L5">
-        <v>0.8685942962711113</v>
+        <v>0.868594296271111</v>
       </c>
       <c r="M5">
         <v>0.8173382710845302</v>
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8343166119490147</v>
+        <v>0.8343166119490179</v>
       </c>
       <c r="D6">
-        <v>0.8433802784934531</v>
+        <v>0.8433802784934562</v>
       </c>
       <c r="E6">
-        <v>0.8582421321354035</v>
+        <v>0.8582421321354059</v>
       </c>
       <c r="F6">
-        <v>0.8065196266786341</v>
+        <v>0.8065196266786373</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8584644439454039</v>
+        <v>0.8584644439454066</v>
       </c>
       <c r="K6">
-        <v>0.8554933307808438</v>
+        <v>0.8554933307808467</v>
       </c>
       <c r="L6">
-        <v>0.8700930005014131</v>
+        <v>0.8700930005014157</v>
       </c>
       <c r="M6">
-        <v>0.8193379154561998</v>
+        <v>0.8193379154562028</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8214460056130037</v>
+        <v>0.8214460056130019</v>
       </c>
       <c r="D7">
-        <v>0.8309891316727369</v>
+        <v>0.830989131672735</v>
       </c>
       <c r="E7">
-        <v>0.8470043531977618</v>
+        <v>0.8470043531977598</v>
       </c>
       <c r="F7">
-        <v>0.7915341855237716</v>
+        <v>0.791534185523769</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.846852653629415</v>
+        <v>0.846852653629413</v>
       </c>
       <c r="K7">
-        <v>0.8436663740923375</v>
+        <v>0.8436663740923355</v>
       </c>
       <c r="L7">
-        <v>0.8593793909609995</v>
+        <v>0.8593793909609975</v>
       </c>
       <c r="M7">
-        <v>0.8050253678792068</v>
+        <v>0.8050253678792042</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D8">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E8">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F8">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K8">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L8">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M8">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D9">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E9">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F9">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K9">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L9">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M9">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D10">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E10">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F10">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K10">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L10">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M10">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D11">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E11">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F11">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K11">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L11">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M11">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D12">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E12">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F12">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K12">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L12">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M12">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D13">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E13">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F13">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K13">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L13">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M13">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D14">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E14">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F14">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K14">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L14">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M14">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D15">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E15">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F15">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K15">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L15">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M15">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D16">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E16">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F16">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K16">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L16">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M16">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D17">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E17">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F17">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K17">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L17">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M17">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D18">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E18">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F18">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K18">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L18">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M18">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D19">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E19">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F19">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K19">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L19">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M19">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D20">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E20">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F20">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K20">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L20">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M20">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D21">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E21">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F21">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K21">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L21">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M21">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D22">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E22">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F22">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K22">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L22">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M22">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D23">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E23">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F23">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K23">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L23">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M23">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D24">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E24">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F24">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K24">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L24">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M24">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7447042427753491</v>
+        <v>0.7447042427753564</v>
       </c>
       <c r="D25">
-        <v>0.7572903086087988</v>
+        <v>0.757290308608806</v>
       </c>
       <c r="E25">
-        <v>0.7803654740338271</v>
+        <v>0.7803654740338335</v>
       </c>
       <c r="F25">
-        <v>0.7009985749281666</v>
+        <v>0.7009985749281746</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.7776337251322322</v>
+        <v>0.7776337251322388</v>
       </c>
       <c r="K25">
-        <v>0.773204727421493</v>
+        <v>0.7732047274215001</v>
       </c>
       <c r="L25">
-        <v>0.7956578916861761</v>
+        <v>0.7956578916861821</v>
       </c>
       <c r="M25">
-        <v>0.7186717986277543</v>
+        <v>0.7186717986277621</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7050502957692878</v>
+        <v>0.7050502957692961</v>
       </c>
       <c r="D2">
-        <v>0.7193549241517804</v>
+        <v>0.7193549241517883</v>
       </c>
       <c r="E2">
-        <v>0.7462580441098905</v>
+        <v>0.7462580441098977</v>
       </c>
       <c r="F2">
-        <v>0.6529749905765381</v>
+        <v>0.6529749905765477</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7419163859799254</v>
+        <v>0.7419163859799329</v>
       </c>
       <c r="K2">
-        <v>0.7368688282248246</v>
+        <v>0.7368688282248322</v>
       </c>
       <c r="L2">
-        <v>0.7629188216505023</v>
+        <v>0.7629188216505092</v>
       </c>
       <c r="M2">
-        <v>0.6730283353402099</v>
+        <v>0.6730283353402192</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.7899433186919583</v>
+        <v>0.7899433186919557</v>
       </c>
       <c r="D3">
-        <v>0.8006950811490874</v>
+        <v>0.8006950811490846</v>
       </c>
       <c r="E3">
-        <v>0.81956475798451</v>
+        <v>0.8195647579845077</v>
       </c>
       <c r="F3">
-        <v>0.7546521674792189</v>
+        <v>0.7546521674792163</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8184299624526191</v>
+        <v>0.8184299624526166</v>
       </c>
       <c r="K3">
-        <v>0.8147257363402837</v>
+        <v>0.814725736340281</v>
       </c>
       <c r="L3">
-        <v>0.8331798278654008</v>
+        <v>0.8331798278653985</v>
       </c>
       <c r="M3">
-        <v>0.7698156283653761</v>
+        <v>0.7698156283653734</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,22 +482,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8212898143189916</v>
+        <v>0.8212898143189914</v>
       </c>
       <c r="D4">
-        <v>0.8308388076585204</v>
+        <v>0.8308388076585201</v>
       </c>
       <c r="E4">
-        <v>0.8468680659268337</v>
+        <v>0.8468680659268334</v>
       </c>
       <c r="F4">
-        <v>0.7913520663107959</v>
+        <v>0.7913520663107952</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.846711731893417</v>
+        <v>0.8467117318934169</v>
       </c>
       <c r="K4">
         <v>0.8435228545540937</v>
@@ -506,7 +506,7 @@
         <v>0.8592494010164554</v>
       </c>
       <c r="M4">
-        <v>0.8048514430934378</v>
+        <v>0.8048514430934373</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,13 +514,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8325164255911318</v>
+        <v>0.832516425591132</v>
       </c>
       <c r="D5">
-        <v>0.8416466830697784</v>
+        <v>0.8416466830697787</v>
       </c>
       <c r="E5">
-        <v>0.8566694837341283</v>
+        <v>0.8566694837341287</v>
       </c>
       <c r="F5">
         <v>0.8044261178073601</v>
@@ -532,10 +532,10 @@
         <v>0.8568404115013887</v>
       </c>
       <c r="K5">
-        <v>0.8538390699909161</v>
+        <v>0.8538390699909163</v>
       </c>
       <c r="L5">
-        <v>0.868594296271111</v>
+        <v>0.8685942962711113</v>
       </c>
       <c r="M5">
         <v>0.8173382710845302</v>
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8343166119490179</v>
+        <v>0.8343166119490147</v>
       </c>
       <c r="D6">
-        <v>0.8433802784934562</v>
+        <v>0.8433802784934531</v>
       </c>
       <c r="E6">
-        <v>0.8582421321354059</v>
+        <v>0.8582421321354035</v>
       </c>
       <c r="F6">
-        <v>0.8065196266786373</v>
+        <v>0.8065196266786341</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8584644439454066</v>
+        <v>0.8584644439454039</v>
       </c>
       <c r="K6">
-        <v>0.8554933307808467</v>
+        <v>0.8554933307808438</v>
       </c>
       <c r="L6">
-        <v>0.8700930005014157</v>
+        <v>0.8700930005014131</v>
       </c>
       <c r="M6">
-        <v>0.8193379154562028</v>
+        <v>0.8193379154561998</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8214460056130019</v>
+        <v>0.8214460056130037</v>
       </c>
       <c r="D7">
-        <v>0.830989131672735</v>
+        <v>0.8309891316727369</v>
       </c>
       <c r="E7">
-        <v>0.8470043531977598</v>
+        <v>0.8470043531977618</v>
       </c>
       <c r="F7">
-        <v>0.791534185523769</v>
+        <v>0.7915341855237716</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.846852653629413</v>
+        <v>0.846852653629415</v>
       </c>
       <c r="K7">
-        <v>0.8436663740923355</v>
+        <v>0.8436663740923375</v>
       </c>
       <c r="L7">
-        <v>0.8593793909609975</v>
+        <v>0.8593793909609995</v>
       </c>
       <c r="M7">
-        <v>0.8050253678792042</v>
+        <v>0.8050253678792068</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D8">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E8">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F8">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K8">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L8">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M8">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D9">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E9">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F9">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K9">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L9">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M9">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D10">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E10">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F10">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K10">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L10">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M10">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D11">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E11">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F11">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K11">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L11">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M11">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D12">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E12">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F12">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K12">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L12">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M12">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D13">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E13">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F13">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K13">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L13">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M13">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D14">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E14">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F14">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K14">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L14">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M14">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D15">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E15">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F15">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K15">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L15">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M15">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D16">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E16">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F16">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K16">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L16">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M16">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D17">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E17">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F17">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K17">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L17">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M17">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D18">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E18">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F18">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K18">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L18">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M18">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D19">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E19">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F19">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K19">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L19">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M19">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D20">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E20">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F20">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K20">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L20">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M20">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D21">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E21">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F21">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K21">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L21">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M21">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D22">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E22">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F22">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K22">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L22">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M22">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D23">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E23">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F23">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K23">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L23">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M23">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D24">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E24">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F24">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K24">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L24">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M24">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7447042427753564</v>
+        <v>0.7447042427753491</v>
       </c>
       <c r="D25">
-        <v>0.757290308608806</v>
+        <v>0.7572903086087988</v>
       </c>
       <c r="E25">
-        <v>0.7803654740338335</v>
+        <v>0.7803654740338271</v>
       </c>
       <c r="F25">
-        <v>0.7009985749281746</v>
+        <v>0.7009985749281666</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.7776337251322388</v>
+        <v>0.7776337251322322</v>
       </c>
       <c r="K25">
-        <v>0.7732047274215001</v>
+        <v>0.773204727421493</v>
       </c>
       <c r="L25">
-        <v>0.7956578916861821</v>
+        <v>0.7956578916861761</v>
       </c>
       <c r="M25">
-        <v>0.7186717986277621</v>
+        <v>0.7186717986277543</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_bus/vm_pu.xlsx
@@ -418,31 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7050502957692961</v>
+        <v>0.7075041650657233</v>
       </c>
       <c r="D2">
-        <v>0.7193549241517883</v>
+        <v>0.721718345397525</v>
       </c>
       <c r="E2">
-        <v>0.7462580441098977</v>
+        <v>0.7483765708022677</v>
       </c>
       <c r="F2">
-        <v>0.6529749905765477</v>
+        <v>0.6558940670907312</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7419163859799329</v>
+        <v>0.7441701672209629</v>
       </c>
       <c r="K2">
-        <v>0.7368688282248322</v>
+        <v>0.7391537572362634</v>
       </c>
       <c r="L2">
-        <v>0.7629188216505092</v>
+        <v>0.7649737464591128</v>
       </c>
       <c r="M2">
-        <v>0.6730283353402192</v>
+        <v>0.6758202480261727</v>
+      </c>
+      <c r="N2">
+        <v>0.8158476686437179</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.7899433186919557</v>
+        <v>0.7906983796377425</v>
       </c>
       <c r="D3">
-        <v>0.8006950811490846</v>
+        <v>0.8014339318929792</v>
       </c>
       <c r="E3">
-        <v>0.8195647579845077</v>
+        <v>0.8202314012646695</v>
       </c>
       <c r="F3">
-        <v>0.7546521674792163</v>
+        <v>0.7554841819854895</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8184299624526166</v>
+        <v>0.8191450810892803</v>
       </c>
       <c r="K3">
-        <v>0.814725736340281</v>
+        <v>0.8154478234130608</v>
       </c>
       <c r="L3">
-        <v>0.8331798278653985</v>
+        <v>0.8338322522100888</v>
       </c>
       <c r="M3">
-        <v>0.7698156283653734</v>
+        <v>0.7706255074894794</v>
+      </c>
+      <c r="N3">
+        <v>0.8698735078015213</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8212898143189914</v>
+        <v>0.8218450913196598</v>
       </c>
       <c r="D4">
-        <v>0.8308388076585201</v>
+        <v>0.8313845920996712</v>
       </c>
       <c r="E4">
-        <v>0.8468680659268334</v>
+        <v>0.8473610514896458</v>
       </c>
       <c r="F4">
-        <v>0.7913520663107952</v>
+        <v>0.7919527388925609</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8467117318934169</v>
+        <v>0.8472424615303279</v>
       </c>
       <c r="K4">
-        <v>0.8435228545540937</v>
+        <v>0.8440580803537291</v>
       </c>
       <c r="L4">
-        <v>0.8592494010164554</v>
+        <v>0.8597333130632534</v>
       </c>
       <c r="M4">
-        <v>0.8048514430934373</v>
+        <v>0.8054389028999034</v>
+      </c>
+      <c r="N4">
+        <v>0.8902766459635778</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.832516425591132</v>
+        <v>0.8330155869437501</v>
       </c>
       <c r="D5">
-        <v>0.8416466830697787</v>
+        <v>0.8421380219915037</v>
       </c>
       <c r="E5">
-        <v>0.8566694837341287</v>
+        <v>0.8571134062954168</v>
       </c>
       <c r="F5">
-        <v>0.8044261178073601</v>
+        <v>0.8049629782293979</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8568404115013887</v>
+        <v>0.8573189539753671</v>
       </c>
       <c r="K5">
-        <v>0.8538390699909163</v>
+        <v>0.8543214610675696</v>
       </c>
       <c r="L5">
-        <v>0.8685942962711113</v>
+        <v>0.8690304967207005</v>
       </c>
       <c r="M5">
-        <v>0.8173382710845302</v>
+        <v>0.8178641256216878</v>
+      </c>
+      <c r="N5">
+        <v>0.8976058427995894</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8343166119490147</v>
+        <v>0.8348073431634558</v>
       </c>
       <c r="D6">
-        <v>0.8433802784934531</v>
+        <v>0.8438634282382883</v>
       </c>
       <c r="E6">
-        <v>0.8582421321354035</v>
+        <v>0.8586786714660281</v>
       </c>
       <c r="F6">
-        <v>0.8065196266786341</v>
+        <v>0.8070469508858189</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8584644439454039</v>
+        <v>0.8589351279059627</v>
       </c>
       <c r="K6">
-        <v>0.8554933307808438</v>
+        <v>0.8559677683183451</v>
       </c>
       <c r="L6">
-        <v>0.8700930005014131</v>
+        <v>0.8705220160840837</v>
       </c>
       <c r="M6">
-        <v>0.8193379154561998</v>
+        <v>0.8198545522175141</v>
+      </c>
+      <c r="N6">
+        <v>0.8987818119029057</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8214460056130037</v>
+        <v>0.8220004567427351</v>
       </c>
       <c r="D7">
-        <v>0.8309891316727369</v>
+        <v>0.8315341156182049</v>
       </c>
       <c r="E7">
-        <v>0.8470043531977618</v>
+        <v>0.8474966177059263</v>
       </c>
       <c r="F7">
-        <v>0.7915341855237716</v>
+        <v>0.7921339148788894</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.846852653629415</v>
+        <v>0.8473826166870989</v>
       </c>
       <c r="K7">
-        <v>0.8436663740923375</v>
+        <v>0.8442008236043088</v>
       </c>
       <c r="L7">
-        <v>0.8593793909609995</v>
+        <v>0.8598626022067095</v>
       </c>
       <c r="M7">
-        <v>0.8050253678792068</v>
+        <v>0.8056119179993885</v>
+      </c>
+      <c r="N7">
+        <v>0.8903785531224517</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D8">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E8">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F8">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K8">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L8">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M8">
-        <v>0.7186717986277543</v>
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N8">
+        <v>0.8407182053667343</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D9">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E9">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F9">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K9">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L9">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M9">
-        <v>0.7186717986277543</v>
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N9">
+        <v>0.8407182053667343</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D10">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E10">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F10">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K10">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L10">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M10">
-        <v>0.7186717986277543</v>
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N10">
+        <v>0.8407182053667343</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D11">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E11">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F11">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K11">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L11">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M11">
-        <v>0.7186717986277543</v>
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N11">
+        <v>0.8407182053667343</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D12">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E12">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F12">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K12">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L12">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M12">
-        <v>0.7186717986277543</v>
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N12">
+        <v>0.8407182053667343</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D13">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E13">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F13">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K13">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L13">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M13">
-        <v>0.7186717986277543</v>
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N13">
+        <v>0.8407182053667343</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D14">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E14">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F14">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K14">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L14">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M14">
-        <v>0.7186717986277543</v>
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N14">
+        <v>0.8407182053667343</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D15">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E15">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F15">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K15">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L15">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M15">
-        <v>0.7186717986277543</v>
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N15">
+        <v>0.8407182053667343</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,319 +908,349 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D16">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E16">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F16">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K16">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L16">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M16">
-        <v>0.7186717986277543</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N16">
+        <v>0.8407182053667343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D17">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E17">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F17">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K17">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L17">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M17">
-        <v>0.7186717986277543</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N17">
+        <v>0.8407182053667343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D18">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E18">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F18">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K18">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L18">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M18">
-        <v>0.7186717986277543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N18">
+        <v>0.8407182053667343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D19">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E19">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F19">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K19">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L19">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M19">
-        <v>0.7186717986277543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N19">
+        <v>0.8407182053667343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D20">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E20">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F20">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K20">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L20">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M20">
-        <v>0.7186717986277543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N20">
+        <v>0.8407182053667343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D21">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E21">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F21">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K21">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L21">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M21">
-        <v>0.7186717986277543</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N21">
+        <v>0.8407182053667343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D22">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E22">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F22">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K22">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L22">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M22">
-        <v>0.7186717986277543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N22">
+        <v>0.8407182053667343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D23">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E23">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F23">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K23">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L23">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M23">
-        <v>0.7186717986277543</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N23">
+        <v>0.8407182053667343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D24">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E24">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F24">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K24">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L24">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M24">
-        <v>0.7186717986277543</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N24">
+        <v>0.8407182053667343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7447042427753491</v>
+        <v>0.7459713392348074</v>
       </c>
       <c r="D25">
-        <v>0.7572903086087988</v>
+        <v>0.7585207093656027</v>
       </c>
       <c r="E25">
-        <v>0.7803654740338271</v>
+        <v>0.7814725922841205</v>
       </c>
       <c r="F25">
-        <v>0.7009985749281666</v>
+        <v>0.7024441023721784</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.7776337251322322</v>
+        <v>0.7788157130131785</v>
       </c>
       <c r="K25">
-        <v>0.773204727421493</v>
+        <v>0.7744006572081232</v>
       </c>
       <c r="L25">
-        <v>0.7956578916861761</v>
+        <v>0.7967364161076055</v>
       </c>
       <c r="M25">
-        <v>0.7186717986277543</v>
+        <v>0.7200672251680317</v>
+      </c>
+      <c r="N25">
+        <v>0.8407182053667343</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.003515152195668</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.011110185584548</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.017571164575284</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.024365964145542</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.045156023085846</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.025591231590811</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.022416877781976</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.028791014618492</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.035495966593186</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.012046339396168</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.008872578896124</v>
+      </c>
+      <c r="D3">
+        <v>1.015567453501163</v>
+      </c>
+      <c r="E3">
+        <v>1.022104488022956</v>
+      </c>
+      <c r="F3">
+        <v>1.029305391245217</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.046380976728024</v>
+      </c>
+      <c r="J3">
+        <v>1.029124256468085</v>
+      </c>
+      <c r="K3">
+        <v>1.0260049465287</v>
+      </c>
+      <c r="L3">
+        <v>1.032462139096837</v>
+      </c>
+      <c r="M3">
+        <v>1.039576547530545</v>
+      </c>
+      <c r="N3">
+        <v>1.013259763939322</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.012259927007838</v>
+      </c>
+      <c r="D4">
+        <v>1.018391042246317</v>
+      </c>
+      <c r="E4">
+        <v>1.024976887305267</v>
+      </c>
+      <c r="F4">
+        <v>1.032435015521512</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.047143738461662</v>
+      </c>
+      <c r="J4">
+        <v>1.031355138088329</v>
+      </c>
+      <c r="K4">
+        <v>1.028272457273937</v>
+      </c>
+      <c r="L4">
+        <v>1.034782926841426</v>
+      </c>
+      <c r="M4">
+        <v>1.042157125447469</v>
+      </c>
+      <c r="N4">
+        <v>1.014025411147074</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.013665771009887</v>
+      </c>
+      <c r="D5">
+        <v>1.019564148318497</v>
+      </c>
+      <c r="E5">
+        <v>1.026170423315806</v>
+      </c>
+      <c r="F5">
+        <v>1.03373541838759</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.047457440819826</v>
+      </c>
+      <c r="J5">
+        <v>1.03228026276662</v>
+      </c>
+      <c r="K5">
+        <v>1.029213220810442</v>
+      </c>
+      <c r="L5">
+        <v>1.035745983210232</v>
+      </c>
+      <c r="M5">
+        <v>1.043228213375715</v>
+      </c>
+      <c r="N5">
+        <v>1.014342777407975</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.013900773118327</v>
+      </c>
+      <c r="D6">
+        <v>1.019760317006224</v>
+      </c>
+      <c r="E6">
+        <v>1.026370017181318</v>
+      </c>
+      <c r="F6">
+        <v>1.033952882801225</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.047509709766025</v>
+      </c>
+      <c r="J6">
+        <v>1.032434861815611</v>
+      </c>
+      <c r="K6">
+        <v>1.029370459702421</v>
+      </c>
+      <c r="L6">
+        <v>1.03590695920842</v>
+      </c>
+      <c r="M6">
+        <v>1.043407260307682</v>
+      </c>
+      <c r="N6">
+        <v>1.014395804537917</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.012278782468847</v>
+      </c>
+      <c r="D7">
+        <v>1.018406771356485</v>
+      </c>
+      <c r="E7">
+        <v>1.024992889746752</v>
+      </c>
+      <c r="F7">
+        <v>1.032452450840579</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.047147957286451</v>
+      </c>
+      <c r="J7">
+        <v>1.031367549082756</v>
+      </c>
+      <c r="K7">
+        <v>1.028285076295497</v>
+      </c>
+      <c r="L7">
+        <v>1.034795844144165</v>
+      </c>
+      <c r="M7">
+        <v>1.042171490862186</v>
+      </c>
+      <c r="N7">
+        <v>1.014029669332254</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.005342615955226</v>
+      </c>
+      <c r="D8">
+        <v>1.012629432238419</v>
+      </c>
+      <c r="E8">
+        <v>1.019116201791203</v>
+      </c>
+      <c r="F8">
+        <v>1.02604943167782</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.045576301939072</v>
+      </c>
+      <c r="J8">
+        <v>1.026796967292673</v>
+      </c>
+      <c r="K8">
+        <v>1.023641004782378</v>
+      </c>
+      <c r="L8">
+        <v>1.030043311195672</v>
+      </c>
+      <c r="M8">
+        <v>1.036887739390512</v>
+      </c>
+      <c r="N8">
+        <v>1.012460563658077</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9924755977198126</v>
+      </c>
+      <c r="D9">
+        <v>1.001957907775457</v>
+      </c>
+      <c r="E9">
+        <v>1.008266230885916</v>
+      </c>
+      <c r="F9">
+        <v>1.014226673342133</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.042569096680616</v>
+      </c>
+      <c r="J9">
+        <v>1.01829688893883</v>
+      </c>
+      <c r="K9">
+        <v>1.015019298961271</v>
+      </c>
+      <c r="L9">
+        <v>1.021226602954383</v>
+      </c>
+      <c r="M9">
+        <v>1.027093073844721</v>
+      </c>
+      <c r="N9">
+        <v>1.009538345749646</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9834074523951309</v>
+      </c>
+      <c r="D10">
+        <v>0.9944722423633722</v>
+      </c>
+      <c r="E10">
+        <v>1.000658888333494</v>
+      </c>
+      <c r="F10">
+        <v>1.005936096610801</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.040390819320341</v>
+      </c>
+      <c r="J10">
+        <v>1.012295213504854</v>
+      </c>
+      <c r="K10">
+        <v>1.008942024621446</v>
+      </c>
+      <c r="L10">
+        <v>1.015016256529822</v>
+      </c>
+      <c r="M10">
+        <v>1.02019899380113</v>
+      </c>
+      <c r="N10">
+        <v>1.007472765958275</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9793505423617503</v>
+      </c>
+      <c r="D11">
+        <v>0.9911326574124608</v>
+      </c>
+      <c r="E11">
+        <v>0.9972658673911575</v>
+      </c>
+      <c r="F11">
+        <v>1.002237949778112</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.039403085960374</v>
+      </c>
+      <c r="J11">
+        <v>1.009608329489915</v>
+      </c>
+      <c r="K11">
+        <v>1.006223758928634</v>
+      </c>
+      <c r="L11">
+        <v>1.012239530303296</v>
+      </c>
+      <c r="M11">
+        <v>1.017117784693392</v>
+      </c>
+      <c r="N11">
+        <v>1.006547601848454</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9778227241086741</v>
+      </c>
+      <c r="D12">
+        <v>0.9898764790042971</v>
+      </c>
+      <c r="E12">
+        <v>0.9959897183925259</v>
+      </c>
+      <c r="F12">
+        <v>1.000846971234835</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.039029192659514</v>
+      </c>
+      <c r="J12">
+        <v>1.008596252760167</v>
+      </c>
+      <c r="K12">
+        <v>1.005200234158597</v>
+      </c>
+      <c r="L12">
+        <v>1.01119415448933</v>
+      </c>
+      <c r="M12">
+        <v>1.015957962582205</v>
+      </c>
+      <c r="N12">
+        <v>1.006199063458311</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9781514145754608</v>
+      </c>
+      <c r="D13">
+        <v>0.9901466604521864</v>
+      </c>
+      <c r="E13">
+        <v>0.9962641892844469</v>
+      </c>
+      <c r="F13">
+        <v>1.001146142641925</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.039109716405612</v>
+      </c>
+      <c r="J13">
+        <v>1.008813996129223</v>
+      </c>
+      <c r="K13">
+        <v>1.005420423644193</v>
+      </c>
+      <c r="L13">
+        <v>1.011419037430258</v>
+      </c>
+      <c r="M13">
+        <v>1.016207457032636</v>
+      </c>
+      <c r="N13">
+        <v>1.006274052065855</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9792246868412441</v>
+      </c>
+      <c r="D14">
+        <v>0.9910291475143982</v>
+      </c>
+      <c r="E14">
+        <v>0.9971607092656969</v>
+      </c>
+      <c r="F14">
+        <v>1.002123330842508</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.03937232464775</v>
+      </c>
+      <c r="J14">
+        <v>1.009524962419827</v>
+      </c>
+      <c r="K14">
+        <v>1.006139441273745</v>
+      </c>
+      <c r="L14">
+        <v>1.01215340927327</v>
+      </c>
+      <c r="M14">
+        <v>1.017022231492602</v>
+      </c>
+      <c r="N14">
+        <v>1.00651889298358</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9798831542984549</v>
+      </c>
+      <c r="D15">
+        <v>0.9915707657668017</v>
+      </c>
+      <c r="E15">
+        <v>0.9977109571894524</v>
+      </c>
+      <c r="F15">
+        <v>1.002723080319608</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.039533188102451</v>
+      </c>
+      <c r="J15">
+        <v>1.00996112529103</v>
+      </c>
+      <c r="K15">
+        <v>1.006580592638273</v>
+      </c>
+      <c r="L15">
+        <v>1.012604002515449</v>
+      </c>
+      <c r="M15">
+        <v>1.017522182261518</v>
+      </c>
+      <c r="N15">
+        <v>1.00666909092846</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9836738400002876</v>
+      </c>
+      <c r="D16">
+        <v>0.9946917306320426</v>
+      </c>
+      <c r="E16">
+        <v>1.000881906390249</v>
+      </c>
+      <c r="F16">
+        <v>1.006179161163991</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.040455407489807</v>
+      </c>
+      <c r="J16">
+        <v>1.012471609033637</v>
+      </c>
+      <c r="K16">
+        <v>1.009120531787912</v>
+      </c>
+      <c r="L16">
+        <v>1.015198624997117</v>
+      </c>
+      <c r="M16">
+        <v>1.020401385465709</v>
+      </c>
+      <c r="N16">
+        <v>1.007533495499647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9860158447369848</v>
+      </c>
+      <c r="D17">
+        <v>0.9966224823029265</v>
+      </c>
+      <c r="E17">
+        <v>1.00284380482532</v>
+      </c>
+      <c r="F17">
+        <v>1.008317363842358</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.041021756054786</v>
+      </c>
+      <c r="J17">
+        <v>1.014022226840652</v>
+      </c>
+      <c r="K17">
+        <v>1.010689991941584</v>
+      </c>
+      <c r="L17">
+        <v>1.01680215489707</v>
+      </c>
+      <c r="M17">
+        <v>1.02218111440804</v>
+      </c>
+      <c r="N17">
+        <v>1.008067295728278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9873694151569944</v>
+      </c>
+      <c r="D18">
+        <v>0.9977392462088595</v>
+      </c>
+      <c r="E18">
+        <v>1.003978664521207</v>
+      </c>
+      <c r="F18">
+        <v>1.009554170372088</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.041347824283511</v>
+      </c>
+      <c r="J18">
+        <v>1.014918231953956</v>
+      </c>
+      <c r="K18">
+        <v>1.011597117648132</v>
+      </c>
+      <c r="L18">
+        <v>1.017729072629612</v>
+      </c>
+      <c r="M18">
+        <v>1.02320999940555</v>
+      </c>
+      <c r="N18">
+        <v>1.008375704471797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9878288688420859</v>
+      </c>
+      <c r="D19">
+        <v>0.9981184651033793</v>
+      </c>
+      <c r="E19">
+        <v>1.004364041750079</v>
+      </c>
+      <c r="F19">
+        <v>1.00997416097821</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.041458289455254</v>
+      </c>
+      <c r="J19">
+        <v>1.015222337768544</v>
+      </c>
+      <c r="K19">
+        <v>1.011905037229523</v>
+      </c>
+      <c r="L19">
+        <v>1.018043727459247</v>
+      </c>
+      <c r="M19">
+        <v>1.023559288012664</v>
+      </c>
+      <c r="N19">
+        <v>1.008480371721471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9857658699603571</v>
+      </c>
+      <c r="D20">
+        <v>0.9964163109317137</v>
+      </c>
+      <c r="E20">
+        <v>1.002634299173221</v>
+      </c>
+      <c r="F20">
+        <v>1.008089034990615</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.04096143641945</v>
+      </c>
+      <c r="J20">
+        <v>1.013856739261914</v>
+      </c>
+      <c r="K20">
+        <v>1.010522469257629</v>
+      </c>
+      <c r="L20">
+        <v>1.016630985226407</v>
+      </c>
+      <c r="M20">
+        <v>1.021991124258922</v>
+      </c>
+      <c r="N20">
+        <v>1.008010330814563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9789092230557903</v>
+      </c>
+      <c r="D21">
+        <v>0.990769718699598</v>
+      </c>
+      <c r="E21">
+        <v>0.9968971515558682</v>
+      </c>
+      <c r="F21">
+        <v>1.001836060372514</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.039295189113506</v>
+      </c>
+      <c r="J21">
+        <v>1.009315995219576</v>
+      </c>
+      <c r="K21">
+        <v>1.005928097353516</v>
+      </c>
+      <c r="L21">
+        <v>1.011937547763816</v>
+      </c>
+      <c r="M21">
+        <v>1.01678273131908</v>
+      </c>
+      <c r="N21">
+        <v>1.006446930748348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9744765091181242</v>
+      </c>
+      <c r="D22">
+        <v>0.9871280716454747</v>
+      </c>
+      <c r="E22">
+        <v>0.9931978572210958</v>
+      </c>
+      <c r="F22">
+        <v>0.9978037569762109</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.038206847087842</v>
+      </c>
+      <c r="J22">
+        <v>1.006379316916524</v>
+      </c>
+      <c r="K22">
+        <v>1.002958910580393</v>
+      </c>
+      <c r="L22">
+        <v>1.0089052810687</v>
+      </c>
+      <c r="M22">
+        <v>1.013418847784289</v>
+      </c>
+      <c r="N22">
+        <v>1.005435508440752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.976838378585132</v>
+      </c>
+      <c r="D23">
+        <v>0.9890675802735367</v>
+      </c>
+      <c r="E23">
+        <v>0.99516799655624</v>
+      </c>
+      <c r="F23">
+        <v>0.9999512891577027</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.038787768904849</v>
+      </c>
+      <c r="J23">
+        <v>1.007944141713113</v>
+      </c>
+      <c r="K23">
+        <v>1.004540852157238</v>
+      </c>
+      <c r="L23">
+        <v>1.01052074125465</v>
+      </c>
+      <c r="M23">
+        <v>1.015210877209993</v>
+      </c>
+      <c r="N23">
+        <v>1.005974475908472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9858788612757138</v>
+      </c>
+      <c r="D24">
+        <v>0.9965094999126886</v>
+      </c>
+      <c r="E24">
+        <v>1.002728994992755</v>
+      </c>
+      <c r="F24">
+        <v>1.008192238942196</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.040988705448723</v>
+      </c>
+      <c r="J24">
+        <v>1.013931542010426</v>
+      </c>
+      <c r="K24">
+        <v>1.010598191180744</v>
+      </c>
+      <c r="L24">
+        <v>1.0167083553132</v>
+      </c>
+      <c r="M24">
+        <v>1.022077000996571</v>
+      </c>
+      <c r="N24">
+        <v>1.008036079897041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9958839877121564</v>
+      </c>
+      <c r="D25">
+        <v>1.004778994573826</v>
+      </c>
+      <c r="E25">
+        <v>1.011133894789624</v>
+      </c>
+      <c r="F25">
+        <v>1.017351613531219</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.043376043590054</v>
+      </c>
+      <c r="J25">
+        <v>1.020550670537825</v>
+      </c>
+      <c r="K25">
+        <v>1.017303573048695</v>
+      </c>
+      <c r="L25">
+        <v>1.023561795539502</v>
+      </c>
+      <c r="M25">
+        <v>1.029686409792306</v>
+      </c>
+      <c r="N25">
+        <v>1.010313594481052</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003515152195668</v>
+        <v>1.040240711994879</v>
       </c>
       <c r="D2">
-        <v>1.011110185584548</v>
+        <v>1.040678017384052</v>
       </c>
       <c r="E2">
-        <v>1.017571164575284</v>
+        <v>1.047881117036417</v>
       </c>
       <c r="F2">
-        <v>1.024365964145542</v>
+        <v>1.056895564117549</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045156023085846</v>
+        <v>1.036382026818991</v>
       </c>
       <c r="J2">
-        <v>1.025591231590811</v>
+        <v>1.045328385389583</v>
       </c>
       <c r="K2">
-        <v>1.022416877781976</v>
+        <v>1.043459685592757</v>
       </c>
       <c r="L2">
-        <v>1.028791014618492</v>
+        <v>1.0506425168711</v>
       </c>
       <c r="M2">
-        <v>1.035495966593186</v>
+        <v>1.059632020472387</v>
       </c>
       <c r="N2">
-        <v>1.012046339396168</v>
+        <v>1.018961036247124</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008872578896124</v>
+        <v>1.041362358261452</v>
       </c>
       <c r="D3">
-        <v>1.015567453501163</v>
+        <v>1.041657361855371</v>
       </c>
       <c r="E3">
-        <v>1.022104488022956</v>
+        <v>1.048882162365443</v>
       </c>
       <c r="F3">
-        <v>1.029305391245217</v>
+        <v>1.057991224953231</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046380976728024</v>
+        <v>1.036566271504541</v>
       </c>
       <c r="J3">
-        <v>1.029124256468085</v>
+        <v>1.046094708349907</v>
       </c>
       <c r="K3">
-        <v>1.0260049465287</v>
+        <v>1.044249058424736</v>
       </c>
       <c r="L3">
-        <v>1.032462139096837</v>
+        <v>1.051455005627237</v>
       </c>
       <c r="M3">
-        <v>1.039576547530545</v>
+        <v>1.060540693633362</v>
       </c>
       <c r="N3">
-        <v>1.013259763939322</v>
+        <v>1.019220374192482</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012259927007838</v>
+        <v>1.042088158385703</v>
       </c>
       <c r="D4">
-        <v>1.018391042246317</v>
+        <v>1.042291352682734</v>
       </c>
       <c r="E4">
-        <v>1.024976887305267</v>
+        <v>1.04953026616906</v>
       </c>
       <c r="F4">
-        <v>1.032435015521512</v>
+        <v>1.058700620264352</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047143738461662</v>
+        <v>1.036684005054374</v>
       </c>
       <c r="J4">
-        <v>1.031355138088329</v>
+        <v>1.046590043741819</v>
       </c>
       <c r="K4">
-        <v>1.028272457273937</v>
+        <v>1.04475951062213</v>
       </c>
       <c r="L4">
-        <v>1.034782926841426</v>
+        <v>1.051980488967751</v>
       </c>
       <c r="M4">
-        <v>1.042157125447469</v>
+        <v>1.061128501162442</v>
       </c>
       <c r="N4">
-        <v>1.014025411147074</v>
+        <v>1.019387877075953</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013665771009887</v>
+        <v>1.04239329020691</v>
       </c>
       <c r="D5">
-        <v>1.019564148318497</v>
+        <v>1.042557951687871</v>
       </c>
       <c r="E5">
-        <v>1.026170423315806</v>
+        <v>1.049802815287056</v>
       </c>
       <c r="F5">
-        <v>1.03373541838759</v>
+        <v>1.058998952935273</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047457440819826</v>
+        <v>1.036733144571142</v>
       </c>
       <c r="J5">
-        <v>1.03228026276662</v>
+        <v>1.046798156697497</v>
       </c>
       <c r="K5">
-        <v>1.029213220810442</v>
+        <v>1.044974026996962</v>
       </c>
       <c r="L5">
-        <v>1.035745983210232</v>
+        <v>1.052201342048281</v>
       </c>
       <c r="M5">
-        <v>1.043228213375715</v>
+        <v>1.061375576034749</v>
       </c>
       <c r="N5">
-        <v>1.014342777407975</v>
+        <v>1.019458221941104</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013900773118327</v>
+        <v>1.042444523521239</v>
       </c>
       <c r="D6">
-        <v>1.019760317006224</v>
+        <v>1.042602718894354</v>
       </c>
       <c r="E6">
-        <v>1.026370017181318</v>
+        <v>1.049848582541693</v>
       </c>
       <c r="F6">
-        <v>1.033952882801225</v>
+        <v>1.05904905033835</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047509709766025</v>
+        <v>1.036741374451764</v>
       </c>
       <c r="J6">
-        <v>1.032434861815611</v>
+        <v>1.046833092389472</v>
       </c>
       <c r="K6">
-        <v>1.029370459702421</v>
+        <v>1.045010040683059</v>
       </c>
       <c r="L6">
-        <v>1.03590695920842</v>
+        <v>1.052238420727831</v>
       </c>
       <c r="M6">
-        <v>1.043407260307682</v>
+        <v>1.061417058682768</v>
       </c>
       <c r="N6">
-        <v>1.014395804537917</v>
+        <v>1.019470028850519</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012278782468847</v>
+        <v>1.042092235549783</v>
       </c>
       <c r="D7">
-        <v>1.018406771356485</v>
+        <v>1.042294914719587</v>
       </c>
       <c r="E7">
-        <v>1.024992889746752</v>
+        <v>1.049533907644741</v>
       </c>
       <c r="F7">
-        <v>1.032452450840579</v>
+        <v>1.058704606195766</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047147957286451</v>
+        <v>1.036684663056702</v>
       </c>
       <c r="J7">
-        <v>1.031367549082756</v>
+        <v>1.04659282505249</v>
       </c>
       <c r="K7">
-        <v>1.028285076295497</v>
+        <v>1.044762377305816</v>
       </c>
       <c r="L7">
-        <v>1.034795844144165</v>
+        <v>1.051983440253607</v>
       </c>
       <c r="M7">
-        <v>1.042171490862186</v>
+        <v>1.061131802743805</v>
       </c>
       <c r="N7">
-        <v>1.014029669332254</v>
+        <v>1.019388817315769</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005342615955226</v>
+        <v>1.040619773862835</v>
       </c>
       <c r="D8">
-        <v>1.012629432238419</v>
+        <v>1.041008931475077</v>
       </c>
       <c r="E8">
-        <v>1.019116201791203</v>
+        <v>1.048219350320266</v>
       </c>
       <c r="F8">
-        <v>1.02604943167782</v>
+        <v>1.057265758936826</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045576301939072</v>
+        <v>1.036444600587534</v>
       </c>
       <c r="J8">
-        <v>1.026796967292673</v>
+        <v>1.045587476946346</v>
       </c>
       <c r="K8">
-        <v>1.023641004782378</v>
+        <v>1.043726525110038</v>
       </c>
       <c r="L8">
-        <v>1.030043311195672</v>
+        <v>1.050917153281593</v>
       </c>
       <c r="M8">
-        <v>1.036887739390512</v>
+        <v>1.059939144957766</v>
       </c>
       <c r="N8">
-        <v>1.012460563658077</v>
+        <v>1.01904874406362</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9924755977198126</v>
+        <v>1.038025231241156</v>
       </c>
       <c r="D9">
-        <v>1.001957907775457</v>
+        <v>1.038745082754918</v>
       </c>
       <c r="E9">
-        <v>1.008266230885916</v>
+        <v>1.045905694591405</v>
       </c>
       <c r="F9">
-        <v>1.014226673342133</v>
+        <v>1.054733612202437</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042569096680616</v>
+        <v>1.036010211689518</v>
       </c>
       <c r="J9">
-        <v>1.01829688893883</v>
+        <v>1.043811886558991</v>
       </c>
       <c r="K9">
-        <v>1.015019298961271</v>
+        <v>1.041898731646365</v>
       </c>
       <c r="L9">
-        <v>1.021226602954383</v>
+        <v>1.0490362937449</v>
       </c>
       <c r="M9">
-        <v>1.027093073844721</v>
+        <v>1.057836265620478</v>
       </c>
       <c r="N9">
-        <v>1.009538345749646</v>
+        <v>1.018447149742212</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9834074523951309</v>
+        <v>1.036295574027511</v>
       </c>
       <c r="D10">
-        <v>0.9944722423633722</v>
+        <v>1.037237339989424</v>
       </c>
       <c r="E10">
-        <v>1.000658888333494</v>
+        <v>1.044365112803725</v>
       </c>
       <c r="F10">
-        <v>1.005936096610801</v>
+        <v>1.053047715713274</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040390819320341</v>
+        <v>1.035712982535733</v>
       </c>
       <c r="J10">
-        <v>1.012295213504854</v>
+        <v>1.042625436289221</v>
       </c>
       <c r="K10">
-        <v>1.008942024621446</v>
+        <v>1.040678523511222</v>
       </c>
       <c r="L10">
-        <v>1.015016256529822</v>
+        <v>1.047781087660609</v>
       </c>
       <c r="M10">
-        <v>1.02019899380113</v>
+        <v>1.056433490490162</v>
       </c>
       <c r="N10">
-        <v>1.007472765958275</v>
+        <v>1.018044514957067</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9793505423617503</v>
+        <v>1.035546611484857</v>
       </c>
       <c r="D11">
-        <v>0.9911326574124608</v>
+        <v>1.036584822742202</v>
       </c>
       <c r="E11">
-        <v>0.9972658673911575</v>
+        <v>1.043698462569463</v>
       </c>
       <c r="F11">
-        <v>1.002237949778112</v>
+        <v>1.052318223256376</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039403085960374</v>
+        <v>1.035582468801543</v>
       </c>
       <c r="J11">
-        <v>1.009608329489915</v>
+        <v>1.042111041664611</v>
       </c>
       <c r="K11">
-        <v>1.006223758928634</v>
+        <v>1.040149759615425</v>
       </c>
       <c r="L11">
-        <v>1.012239530303296</v>
+        <v>1.047237259318742</v>
       </c>
       <c r="M11">
-        <v>1.017117784693392</v>
+        <v>1.055825868226475</v>
       </c>
       <c r="N11">
-        <v>1.006547601848454</v>
+        <v>1.017869797050751</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9778227241086741</v>
+        <v>1.035268410970215</v>
       </c>
       <c r="D12">
-        <v>0.9898764790042971</v>
+        <v>1.0363425004418</v>
       </c>
       <c r="E12">
-        <v>0.9959897183925259</v>
+        <v>1.043450903642998</v>
       </c>
       <c r="F12">
-        <v>1.000846971234835</v>
+        <v>1.052047333822726</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039029192659514</v>
+        <v>1.035533718050626</v>
       </c>
       <c r="J12">
-        <v>1.008596252760167</v>
+        <v>1.04191987404046</v>
       </c>
       <c r="K12">
-        <v>1.005200234158597</v>
+        <v>1.039953291931597</v>
       </c>
       <c r="L12">
-        <v>1.01119415448933</v>
+        <v>1.047035209539012</v>
       </c>
       <c r="M12">
-        <v>1.015957962582205</v>
+        <v>1.055600138206805</v>
       </c>
       <c r="N12">
-        <v>1.006199063458311</v>
+        <v>1.017804842772705</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9781514145754608</v>
+        <v>1.03532808605389</v>
       </c>
       <c r="D13">
-        <v>0.9901466604521864</v>
+        <v>1.03639447706374</v>
       </c>
       <c r="E13">
-        <v>0.9962641892844469</v>
+        <v>1.04350400295105</v>
       </c>
       <c r="F13">
-        <v>1.001146142641925</v>
+        <v>1.052105437067646</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039109716405612</v>
+        <v>1.035544187566631</v>
       </c>
       <c r="J13">
-        <v>1.008813996129223</v>
+        <v>1.04196088460995</v>
       </c>
       <c r="K13">
-        <v>1.005420423644193</v>
+        <v>1.0399954376919</v>
       </c>
       <c r="L13">
-        <v>1.011419037430258</v>
+        <v>1.047078552066406</v>
       </c>
       <c r="M13">
-        <v>1.016207457032636</v>
+        <v>1.055648559517732</v>
       </c>
       <c r="N13">
-        <v>1.006274052065855</v>
+        <v>1.017818778232444</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9792246868412441</v>
+        <v>1.035523615400127</v>
       </c>
       <c r="D14">
-        <v>0.9910291475143982</v>
+        <v>1.036564791252728</v>
       </c>
       <c r="E14">
-        <v>0.9971607092656969</v>
+        <v>1.043677997953788</v>
       </c>
       <c r="F14">
-        <v>1.002123330842508</v>
+        <v>1.052295829891831</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03937232464775</v>
+        <v>1.035578444600666</v>
       </c>
       <c r="J14">
-        <v>1.009524962419827</v>
+        <v>1.042095241701593</v>
       </c>
       <c r="K14">
-        <v>1.006139441273745</v>
+        <v>1.040133520786052</v>
       </c>
       <c r="L14">
-        <v>1.01215340927327</v>
+        <v>1.047220558795954</v>
       </c>
       <c r="M14">
-        <v>1.017022231492602</v>
+        <v>1.055807209968313</v>
       </c>
       <c r="N14">
-        <v>1.00651889298358</v>
+        <v>1.017864429057846</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9798831542984549</v>
+        <v>1.035644087123989</v>
       </c>
       <c r="D15">
-        <v>0.9915707657668017</v>
+        <v>1.036669734284243</v>
       </c>
       <c r="E15">
-        <v>0.9977109571894524</v>
+        <v>1.0437852105779</v>
       </c>
       <c r="F15">
-        <v>1.002723080319608</v>
+        <v>1.052413147326995</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039533188102451</v>
+        <v>1.035599515429689</v>
       </c>
       <c r="J15">
-        <v>1.00996112529103</v>
+        <v>1.042178010470534</v>
       </c>
       <c r="K15">
-        <v>1.006580592638273</v>
+        <v>1.040218590215914</v>
       </c>
       <c r="L15">
-        <v>1.012604002515449</v>
+        <v>1.047308047497426</v>
       </c>
       <c r="M15">
-        <v>1.017522182261518</v>
+        <v>1.055904955490262</v>
       </c>
       <c r="N15">
-        <v>1.00666909092846</v>
+        <v>1.017892548581306</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9836738400002876</v>
+        <v>1.036345279914435</v>
       </c>
       <c r="D16">
-        <v>0.9946917306320426</v>
+        <v>1.037280652666697</v>
       </c>
       <c r="E16">
-        <v>1.000881906390249</v>
+        <v>1.044409365263379</v>
       </c>
       <c r="F16">
-        <v>1.006179161163991</v>
+        <v>1.053096140478971</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040455407489807</v>
+        <v>1.035721606137383</v>
       </c>
       <c r="J16">
-        <v>1.012471609033637</v>
+        <v>1.042659561163047</v>
       </c>
       <c r="K16">
-        <v>1.009120531787912</v>
+        <v>1.040713607258041</v>
       </c>
       <c r="L16">
-        <v>1.015198624997117</v>
+        <v>1.047817173079473</v>
       </c>
       <c r="M16">
-        <v>1.020401385465709</v>
+        <v>1.056473811899638</v>
       </c>
       <c r="N16">
-        <v>1.007533495499647</v>
+        <v>1.018056102519419</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9860158447369848</v>
+        <v>1.036785116332067</v>
       </c>
       <c r="D17">
-        <v>0.9966224823029265</v>
+        <v>1.037663957923787</v>
       </c>
       <c r="E17">
-        <v>1.00284380482532</v>
+        <v>1.044800996465613</v>
       </c>
       <c r="F17">
-        <v>1.008317363842358</v>
+        <v>1.053524700825711</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041021756054786</v>
+        <v>1.035797705427928</v>
       </c>
       <c r="J17">
-        <v>1.014022226840652</v>
+        <v>1.042961449911405</v>
       </c>
       <c r="K17">
-        <v>1.010689991941584</v>
+        <v>1.041024009553957</v>
       </c>
       <c r="L17">
-        <v>1.01680215489707</v>
+        <v>1.048136449360564</v>
       </c>
       <c r="M17">
-        <v>1.02218111440804</v>
+        <v>1.05683058369392</v>
       </c>
       <c r="N17">
-        <v>1.008067295728278</v>
+        <v>1.018158595335275</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9873694151569944</v>
+        <v>1.037041664621035</v>
       </c>
       <c r="D18">
-        <v>0.9977392462088595</v>
+        <v>1.037887566728577</v>
       </c>
       <c r="E18">
-        <v>1.003978664521207</v>
+        <v>1.045029470002198</v>
       </c>
       <c r="F18">
-        <v>1.009554170372088</v>
+        <v>1.053774722235017</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041347824283511</v>
+        <v>1.035841918066649</v>
       </c>
       <c r="J18">
-        <v>1.014918231953956</v>
+        <v>1.043137473447782</v>
       </c>
       <c r="K18">
-        <v>1.011597117648132</v>
+        <v>1.041205022833863</v>
       </c>
       <c r="L18">
-        <v>1.017729072629612</v>
+        <v>1.048322647359347</v>
       </c>
       <c r="M18">
-        <v>1.02320999940555</v>
+        <v>1.057038662270929</v>
       </c>
       <c r="N18">
-        <v>1.008375704471797</v>
+        <v>1.01821834153923</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9878288688420859</v>
+        <v>1.037129140845</v>
       </c>
       <c r="D19">
-        <v>0.9981184651033793</v>
+        <v>1.037963817213075</v>
       </c>
       <c r="E19">
-        <v>1.004364041750079</v>
+        <v>1.045107380650786</v>
       </c>
       <c r="F19">
-        <v>1.00997416097821</v>
+        <v>1.053859981465953</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041458289455254</v>
+        <v>1.035856963785698</v>
       </c>
       <c r="J19">
-        <v>1.015222337768544</v>
+        <v>1.043197482238182</v>
       </c>
       <c r="K19">
-        <v>1.011905037229523</v>
+        <v>1.041266737056108</v>
       </c>
       <c r="L19">
-        <v>1.018043727459247</v>
+        <v>1.048386130907788</v>
       </c>
       <c r="M19">
-        <v>1.023559288012664</v>
+        <v>1.057109608241695</v>
       </c>
       <c r="N19">
-        <v>1.008480371721471</v>
+        <v>1.018238707324585</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9857658699603571</v>
+        <v>1.036737926142493</v>
       </c>
       <c r="D20">
-        <v>0.9964163109317137</v>
+        <v>1.037622829450908</v>
       </c>
       <c r="E20">
-        <v>1.002634299173221</v>
+        <v>1.044758973834089</v>
       </c>
       <c r="F20">
-        <v>1.008089034990615</v>
+        <v>1.053478715248084</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04096143641945</v>
+        <v>1.03578955877336</v>
       </c>
       <c r="J20">
-        <v>1.013856739261914</v>
+        <v>1.042929066630884</v>
       </c>
       <c r="K20">
-        <v>1.010522469257629</v>
+        <v>1.040990710374244</v>
       </c>
       <c r="L20">
-        <v>1.016630985226407</v>
+        <v>1.048102197189056</v>
       </c>
       <c r="M20">
-        <v>1.021991124258922</v>
+        <v>1.056792307566303</v>
       </c>
       <c r="N20">
-        <v>1.008010330814563</v>
+        <v>1.01814760256244</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9789092230557903</v>
+        <v>1.035466036957898</v>
       </c>
       <c r="D21">
-        <v>0.990769718699598</v>
+        <v>1.0365146365448</v>
       </c>
       <c r="E21">
-        <v>0.9968971515558682</v>
+        <v>1.043626758979277</v>
       </c>
       <c r="F21">
-        <v>1.001836060372514</v>
+        <v>1.052239761840338</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039295189113506</v>
+        <v>1.035568364270135</v>
       </c>
       <c r="J21">
-        <v>1.009315995219576</v>
+        <v>1.042055679610153</v>
       </c>
       <c r="K21">
-        <v>1.005928097353516</v>
+        <v>1.040092860448905</v>
       </c>
       <c r="L21">
-        <v>1.011937547763816</v>
+        <v>1.047178742672997</v>
       </c>
       <c r="M21">
-        <v>1.01678273131908</v>
+        <v>1.055760492252203</v>
       </c>
       <c r="N21">
-        <v>1.006446930748348</v>
+        <v>1.017850987581035</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9744765091181242</v>
+        <v>1.03466633488956</v>
       </c>
       <c r="D22">
-        <v>0.9871280716454747</v>
+        <v>1.035818170450282</v>
       </c>
       <c r="E22">
-        <v>0.9931978572210958</v>
+        <v>1.04291526451255</v>
       </c>
       <c r="F22">
-        <v>0.9978037569762109</v>
+        <v>1.051461225351996</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038206847087842</v>
+        <v>1.035427716007766</v>
       </c>
       <c r="J22">
-        <v>1.006379316916524</v>
+        <v>1.041505976142029</v>
       </c>
       <c r="K22">
-        <v>1.002958910580393</v>
+        <v>1.039527992172372</v>
       </c>
       <c r="L22">
-        <v>1.0089052810687</v>
+        <v>1.046597853941507</v>
       </c>
       <c r="M22">
-        <v>1.013418847784289</v>
+        <v>1.055111563393399</v>
       </c>
       <c r="N22">
-        <v>1.005435508440752</v>
+        <v>1.017664168407471</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.976838378585132</v>
+        <v>1.035090273843288</v>
       </c>
       <c r="D23">
-        <v>0.9890675802735367</v>
+        <v>1.036187352059185</v>
       </c>
       <c r="E23">
-        <v>0.99516799655624</v>
+        <v>1.043292405821298</v>
       </c>
       <c r="F23">
-        <v>0.9999512891577027</v>
+        <v>1.051873900431102</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038787768904849</v>
+        <v>1.035502425548502</v>
       </c>
       <c r="J23">
-        <v>1.007944141713113</v>
+        <v>1.04179743852639</v>
       </c>
       <c r="K23">
-        <v>1.004540852157238</v>
+        <v>1.039827473217833</v>
       </c>
       <c r="L23">
-        <v>1.01052074125465</v>
+        <v>1.046905820322479</v>
       </c>
       <c r="M23">
-        <v>1.015210877209993</v>
+        <v>1.055455590554417</v>
       </c>
       <c r="N23">
-        <v>1.005974475908472</v>
+        <v>1.017763235652866</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9858788612757138</v>
+        <v>1.036759249360166</v>
       </c>
       <c r="D24">
-        <v>0.9965094999126886</v>
+        <v>1.037641413534272</v>
       </c>
       <c r="E24">
-        <v>1.002728994992755</v>
+        <v>1.044777961923459</v>
       </c>
       <c r="F24">
-        <v>1.008192238942196</v>
+        <v>1.053499493998303</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040988705448723</v>
+        <v>1.035793240435907</v>
       </c>
       <c r="J24">
-        <v>1.013931542010426</v>
+        <v>1.042943699436094</v>
       </c>
       <c r="K24">
-        <v>1.010598191180744</v>
+        <v>1.041005756960929</v>
       </c>
       <c r="L24">
-        <v>1.0167083553132</v>
+        <v>1.048117674364912</v>
       </c>
       <c r="M24">
-        <v>1.022077000996571</v>
+        <v>1.056809602963553</v>
       </c>
       <c r="N24">
-        <v>1.008036079897041</v>
+        <v>1.018152569834865</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9958839877121564</v>
+        <v>1.038695972742643</v>
       </c>
       <c r="D25">
-        <v>1.004778994573826</v>
+        <v>1.039330079216957</v>
       </c>
       <c r="E25">
-        <v>1.011133894789624</v>
+        <v>1.046503502895315</v>
       </c>
       <c r="F25">
-        <v>1.017351613531219</v>
+        <v>1.055387844239855</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043376043590054</v>
+        <v>1.036123858119726</v>
       </c>
       <c r="J25">
-        <v>1.020550670537825</v>
+        <v>1.044271398648893</v>
       </c>
       <c r="K25">
-        <v>1.017303573048695</v>
+        <v>1.042371555635523</v>
       </c>
       <c r="L25">
-        <v>1.023561795539502</v>
+        <v>1.049522769730968</v>
       </c>
       <c r="M25">
-        <v>1.029686409792306</v>
+        <v>1.058380060707272</v>
       </c>
       <c r="N25">
-        <v>1.010313594481052</v>
+        <v>1.018602953538678</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040240711994879</v>
+        <v>1.003515152195668</v>
       </c>
       <c r="D2">
-        <v>1.040678017384052</v>
+        <v>1.011110185584547</v>
       </c>
       <c r="E2">
-        <v>1.047881117036417</v>
+        <v>1.017571164575283</v>
       </c>
       <c r="F2">
-        <v>1.056895564117549</v>
+        <v>1.024365964145541</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036382026818991</v>
+        <v>1.045156023085846</v>
       </c>
       <c r="J2">
-        <v>1.045328385389583</v>
+        <v>1.025591231590811</v>
       </c>
       <c r="K2">
-        <v>1.043459685592757</v>
+        <v>1.022416877781976</v>
       </c>
       <c r="L2">
-        <v>1.0506425168711</v>
+        <v>1.028791014618492</v>
       </c>
       <c r="M2">
-        <v>1.059632020472387</v>
+        <v>1.035495966593184</v>
       </c>
       <c r="N2">
-        <v>1.018961036247124</v>
+        <v>1.012046339396168</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041362358261452</v>
+        <v>1.008872578896123</v>
       </c>
       <c r="D3">
-        <v>1.041657361855371</v>
+        <v>1.015567453501163</v>
       </c>
       <c r="E3">
-        <v>1.048882162365443</v>
+        <v>1.022104488022956</v>
       </c>
       <c r="F3">
-        <v>1.057991224953231</v>
+        <v>1.029305391245217</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036566271504541</v>
+        <v>1.046380976728024</v>
       </c>
       <c r="J3">
-        <v>1.046094708349907</v>
+        <v>1.029124256468084</v>
       </c>
       <c r="K3">
-        <v>1.044249058424736</v>
+        <v>1.0260049465287</v>
       </c>
       <c r="L3">
-        <v>1.051455005627237</v>
+        <v>1.032462139096837</v>
       </c>
       <c r="M3">
-        <v>1.060540693633362</v>
+        <v>1.039576547530545</v>
       </c>
       <c r="N3">
-        <v>1.019220374192482</v>
+        <v>1.013259763939322</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042088158385703</v>
+        <v>1.012259927007836</v>
       </c>
       <c r="D4">
-        <v>1.042291352682734</v>
+        <v>1.018391042246316</v>
       </c>
       <c r="E4">
-        <v>1.04953026616906</v>
+        <v>1.024976887305265</v>
       </c>
       <c r="F4">
-        <v>1.058700620264352</v>
+        <v>1.03243501552151</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036684005054374</v>
+        <v>1.047143738461661</v>
       </c>
       <c r="J4">
-        <v>1.046590043741819</v>
+        <v>1.031355138088326</v>
       </c>
       <c r="K4">
-        <v>1.04475951062213</v>
+        <v>1.028272457273935</v>
       </c>
       <c r="L4">
-        <v>1.051980488967751</v>
+        <v>1.034782926841423</v>
       </c>
       <c r="M4">
-        <v>1.061128501162442</v>
+        <v>1.042157125447467</v>
       </c>
       <c r="N4">
-        <v>1.019387877075953</v>
+        <v>1.014025411147073</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04239329020691</v>
+        <v>1.013665771009888</v>
       </c>
       <c r="D5">
-        <v>1.042557951687871</v>
+        <v>1.019564148318497</v>
       </c>
       <c r="E5">
-        <v>1.049802815287056</v>
+        <v>1.026170423315806</v>
       </c>
       <c r="F5">
-        <v>1.058998952935273</v>
+        <v>1.03373541838759</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036733144571142</v>
+        <v>1.047457440819826</v>
       </c>
       <c r="J5">
-        <v>1.046798156697497</v>
+        <v>1.03228026276662</v>
       </c>
       <c r="K5">
-        <v>1.044974026996962</v>
+        <v>1.029213220810442</v>
       </c>
       <c r="L5">
-        <v>1.052201342048281</v>
+        <v>1.035745983210232</v>
       </c>
       <c r="M5">
-        <v>1.061375576034749</v>
+        <v>1.043228213375715</v>
       </c>
       <c r="N5">
-        <v>1.019458221941104</v>
+        <v>1.014342777407975</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042444523521239</v>
+        <v>1.013900773118327</v>
       </c>
       <c r="D6">
-        <v>1.042602718894354</v>
+        <v>1.019760317006224</v>
       </c>
       <c r="E6">
-        <v>1.049848582541693</v>
+        <v>1.026370017181318</v>
       </c>
       <c r="F6">
-        <v>1.05904905033835</v>
+        <v>1.033952882801225</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036741374451764</v>
+        <v>1.047509709766025</v>
       </c>
       <c r="J6">
-        <v>1.046833092389472</v>
+        <v>1.032434861815611</v>
       </c>
       <c r="K6">
-        <v>1.045010040683059</v>
+        <v>1.029370459702421</v>
       </c>
       <c r="L6">
-        <v>1.052238420727831</v>
+        <v>1.03590695920842</v>
       </c>
       <c r="M6">
-        <v>1.061417058682768</v>
+        <v>1.043407260307682</v>
       </c>
       <c r="N6">
-        <v>1.019470028850519</v>
+        <v>1.014395804537917</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042092235549783</v>
+        <v>1.012278782468848</v>
       </c>
       <c r="D7">
-        <v>1.042294914719587</v>
+        <v>1.018406771356486</v>
       </c>
       <c r="E7">
-        <v>1.049533907644741</v>
+        <v>1.024992889746754</v>
       </c>
       <c r="F7">
-        <v>1.058704606195766</v>
+        <v>1.03245245084058</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036684663056702</v>
+        <v>1.047147957286451</v>
       </c>
       <c r="J7">
-        <v>1.04659282505249</v>
+        <v>1.031367549082757</v>
       </c>
       <c r="K7">
-        <v>1.044762377305816</v>
+        <v>1.028285076295498</v>
       </c>
       <c r="L7">
-        <v>1.051983440253607</v>
+        <v>1.034795844144166</v>
       </c>
       <c r="M7">
-        <v>1.061131802743805</v>
+        <v>1.042171490862188</v>
       </c>
       <c r="N7">
-        <v>1.019388817315769</v>
+        <v>1.014029669332255</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040619773862835</v>
+        <v>1.005342615955227</v>
       </c>
       <c r="D8">
-        <v>1.041008931475077</v>
+        <v>1.01262943223842</v>
       </c>
       <c r="E8">
-        <v>1.048219350320266</v>
+        <v>1.019116201791204</v>
       </c>
       <c r="F8">
-        <v>1.057265758936826</v>
+        <v>1.02604943167782</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036444600587534</v>
+        <v>1.045576301939072</v>
       </c>
       <c r="J8">
-        <v>1.045587476946346</v>
+        <v>1.026796967292673</v>
       </c>
       <c r="K8">
-        <v>1.043726525110038</v>
+        <v>1.023641004782379</v>
       </c>
       <c r="L8">
-        <v>1.050917153281593</v>
+        <v>1.030043311195672</v>
       </c>
       <c r="M8">
-        <v>1.059939144957766</v>
+        <v>1.036887739390513</v>
       </c>
       <c r="N8">
-        <v>1.01904874406362</v>
+        <v>1.012460563658078</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038025231241156</v>
+        <v>0.992475597719812</v>
       </c>
       <c r="D9">
-        <v>1.038745082754918</v>
+        <v>1.001957907775456</v>
       </c>
       <c r="E9">
-        <v>1.045905694591405</v>
+        <v>1.008266230885915</v>
       </c>
       <c r="F9">
-        <v>1.054733612202437</v>
+        <v>1.014226673342132</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036010211689518</v>
+        <v>1.042569096680616</v>
       </c>
       <c r="J9">
-        <v>1.043811886558991</v>
+        <v>1.018296888938829</v>
       </c>
       <c r="K9">
-        <v>1.041898731646365</v>
+        <v>1.01501929896127</v>
       </c>
       <c r="L9">
-        <v>1.0490362937449</v>
+        <v>1.021226602954382</v>
       </c>
       <c r="M9">
-        <v>1.057836265620478</v>
+        <v>1.02709307384472</v>
       </c>
       <c r="N9">
-        <v>1.018447149742212</v>
+        <v>1.009538345749645</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036295574027511</v>
+        <v>0.9834074523951311</v>
       </c>
       <c r="D10">
-        <v>1.037237339989424</v>
+        <v>0.9944722423633727</v>
       </c>
       <c r="E10">
-        <v>1.044365112803725</v>
+        <v>1.000658888333495</v>
       </c>
       <c r="F10">
-        <v>1.053047715713274</v>
+        <v>1.005936096610801</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035712982535733</v>
+        <v>1.040390819320341</v>
       </c>
       <c r="J10">
-        <v>1.042625436289221</v>
+        <v>1.012295213504855</v>
       </c>
       <c r="K10">
-        <v>1.040678523511222</v>
+        <v>1.008942024621447</v>
       </c>
       <c r="L10">
-        <v>1.047781087660609</v>
+        <v>1.015016256529823</v>
       </c>
       <c r="M10">
-        <v>1.056433490490162</v>
+        <v>1.02019899380113</v>
       </c>
       <c r="N10">
-        <v>1.018044514957067</v>
+        <v>1.007472765958276</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035546611484857</v>
+        <v>0.9793505423617501</v>
       </c>
       <c r="D11">
-        <v>1.036584822742202</v>
+        <v>0.9911326574124606</v>
       </c>
       <c r="E11">
-        <v>1.043698462569463</v>
+        <v>0.9972658673911577</v>
       </c>
       <c r="F11">
-        <v>1.052318223256376</v>
+        <v>1.002237949778111</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035582468801543</v>
+        <v>1.039403085960375</v>
       </c>
       <c r="J11">
-        <v>1.042111041664611</v>
+        <v>1.009608329489915</v>
       </c>
       <c r="K11">
-        <v>1.040149759615425</v>
+        <v>1.006223758928634</v>
       </c>
       <c r="L11">
-        <v>1.047237259318742</v>
+        <v>1.012239530303296</v>
       </c>
       <c r="M11">
-        <v>1.055825868226475</v>
+        <v>1.017117784693392</v>
       </c>
       <c r="N11">
-        <v>1.017869797050751</v>
+        <v>1.006547601848454</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035268410970215</v>
+        <v>0.9778227241086743</v>
       </c>
       <c r="D12">
-        <v>1.0363425004418</v>
+        <v>0.9898764790042972</v>
       </c>
       <c r="E12">
-        <v>1.043450903642998</v>
+        <v>0.9959897183925259</v>
       </c>
       <c r="F12">
-        <v>1.052047333822726</v>
+        <v>1.000846971234835</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035533718050626</v>
+        <v>1.039029192659514</v>
       </c>
       <c r="J12">
-        <v>1.04191987404046</v>
+        <v>1.008596252760167</v>
       </c>
       <c r="K12">
-        <v>1.039953291931597</v>
+        <v>1.005200234158597</v>
       </c>
       <c r="L12">
-        <v>1.047035209539012</v>
+        <v>1.01119415448933</v>
       </c>
       <c r="M12">
-        <v>1.055600138206805</v>
+        <v>1.015957962582205</v>
       </c>
       <c r="N12">
-        <v>1.017804842772705</v>
+        <v>1.006199063458311</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03532808605389</v>
+        <v>0.9781514145754605</v>
       </c>
       <c r="D13">
-        <v>1.03639447706374</v>
+        <v>0.9901466604521866</v>
       </c>
       <c r="E13">
-        <v>1.04350400295105</v>
+        <v>0.9962641892844473</v>
       </c>
       <c r="F13">
-        <v>1.052105437067646</v>
+        <v>1.001146142641926</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035544187566631</v>
+        <v>1.039109716405612</v>
       </c>
       <c r="J13">
-        <v>1.04196088460995</v>
+        <v>1.008813996129223</v>
       </c>
       <c r="K13">
-        <v>1.0399954376919</v>
+        <v>1.005420423644194</v>
       </c>
       <c r="L13">
-        <v>1.047078552066406</v>
+        <v>1.011419037430258</v>
       </c>
       <c r="M13">
-        <v>1.055648559517732</v>
+        <v>1.016207457032636</v>
       </c>
       <c r="N13">
-        <v>1.017818778232444</v>
+        <v>1.006274052065855</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035523615400127</v>
+        <v>0.9792246868412431</v>
       </c>
       <c r="D14">
-        <v>1.036564791252728</v>
+        <v>0.9910291475143972</v>
       </c>
       <c r="E14">
-        <v>1.043677997953788</v>
+        <v>0.9971607092656958</v>
       </c>
       <c r="F14">
-        <v>1.052295829891831</v>
+        <v>1.002123330842507</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035578444600666</v>
+        <v>1.03937232464775</v>
       </c>
       <c r="J14">
-        <v>1.042095241701593</v>
+        <v>1.009524962419826</v>
       </c>
       <c r="K14">
-        <v>1.040133520786052</v>
+        <v>1.006139441273744</v>
       </c>
       <c r="L14">
-        <v>1.047220558795954</v>
+        <v>1.012153409273269</v>
       </c>
       <c r="M14">
-        <v>1.055807209968313</v>
+        <v>1.017022231492602</v>
       </c>
       <c r="N14">
-        <v>1.017864429057846</v>
+        <v>1.00651889298358</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035644087123989</v>
+        <v>0.9798831542984556</v>
       </c>
       <c r="D15">
-        <v>1.036669734284243</v>
+        <v>0.9915707657668024</v>
       </c>
       <c r="E15">
-        <v>1.0437852105779</v>
+        <v>0.9977109571894532</v>
       </c>
       <c r="F15">
-        <v>1.052413147326995</v>
+        <v>1.002723080319609</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035599515429689</v>
+        <v>1.039533188102451</v>
       </c>
       <c r="J15">
-        <v>1.042178010470534</v>
+        <v>1.009961125291031</v>
       </c>
       <c r="K15">
-        <v>1.040218590215914</v>
+        <v>1.006580592638274</v>
       </c>
       <c r="L15">
-        <v>1.047308047497426</v>
+        <v>1.01260400251545</v>
       </c>
       <c r="M15">
-        <v>1.055904955490262</v>
+        <v>1.017522182261519</v>
       </c>
       <c r="N15">
-        <v>1.017892548581306</v>
+        <v>1.00666909092846</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036345279914435</v>
+        <v>0.9836738400002881</v>
       </c>
       <c r="D16">
-        <v>1.037280652666697</v>
+        <v>0.9946917306320431</v>
       </c>
       <c r="E16">
-        <v>1.044409365263379</v>
+        <v>1.000881906390249</v>
       </c>
       <c r="F16">
-        <v>1.053096140478971</v>
+        <v>1.006179161163992</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035721606137383</v>
+        <v>1.040455407489807</v>
       </c>
       <c r="J16">
-        <v>1.042659561163047</v>
+        <v>1.012471609033637</v>
       </c>
       <c r="K16">
-        <v>1.040713607258041</v>
+        <v>1.009120531787912</v>
       </c>
       <c r="L16">
-        <v>1.047817173079473</v>
+        <v>1.015198624997118</v>
       </c>
       <c r="M16">
-        <v>1.056473811899638</v>
+        <v>1.02040138546571</v>
       </c>
       <c r="N16">
-        <v>1.018056102519419</v>
+        <v>1.007533495499647</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036785116332067</v>
+        <v>0.9860158447369843</v>
       </c>
       <c r="D17">
-        <v>1.037663957923787</v>
+        <v>0.9966224823029258</v>
       </c>
       <c r="E17">
-        <v>1.044800996465613</v>
+        <v>1.002843804825319</v>
       </c>
       <c r="F17">
-        <v>1.053524700825711</v>
+        <v>1.008317363842357</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035797705427928</v>
+        <v>1.041021756054785</v>
       </c>
       <c r="J17">
-        <v>1.042961449911405</v>
+        <v>1.014022226840652</v>
       </c>
       <c r="K17">
-        <v>1.041024009553957</v>
+        <v>1.010689991941584</v>
       </c>
       <c r="L17">
-        <v>1.048136449360564</v>
+        <v>1.016802154897069</v>
       </c>
       <c r="M17">
-        <v>1.05683058369392</v>
+        <v>1.02218111440804</v>
       </c>
       <c r="N17">
-        <v>1.018158595335275</v>
+        <v>1.008067295728278</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037041664621035</v>
+        <v>0.9873694151569933</v>
       </c>
       <c r="D18">
-        <v>1.037887566728577</v>
+        <v>0.997739246208858</v>
       </c>
       <c r="E18">
-        <v>1.045029470002198</v>
+        <v>1.003978664521205</v>
       </c>
       <c r="F18">
-        <v>1.053774722235017</v>
+        <v>1.009554170372086</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035841918066649</v>
+        <v>1.041347824283511</v>
       </c>
       <c r="J18">
-        <v>1.043137473447782</v>
+        <v>1.014918231953955</v>
       </c>
       <c r="K18">
-        <v>1.041205022833863</v>
+        <v>1.011597117648131</v>
       </c>
       <c r="L18">
-        <v>1.048322647359347</v>
+        <v>1.017729072629612</v>
       </c>
       <c r="M18">
-        <v>1.057038662270929</v>
+        <v>1.023209999405549</v>
       </c>
       <c r="N18">
-        <v>1.01821834153923</v>
+        <v>1.008375704471796</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037129140845</v>
+        <v>0.9878288688420869</v>
       </c>
       <c r="D19">
-        <v>1.037963817213075</v>
+        <v>0.9981184651033804</v>
       </c>
       <c r="E19">
-        <v>1.045107380650786</v>
+        <v>1.004364041750079</v>
       </c>
       <c r="F19">
-        <v>1.053859981465953</v>
+        <v>1.00997416097821</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035856963785698</v>
+        <v>1.041458289455254</v>
       </c>
       <c r="J19">
-        <v>1.043197482238182</v>
+        <v>1.015222337768545</v>
       </c>
       <c r="K19">
-        <v>1.041266737056108</v>
+        <v>1.011905037229524</v>
       </c>
       <c r="L19">
-        <v>1.048386130907788</v>
+        <v>1.018043727459247</v>
       </c>
       <c r="M19">
-        <v>1.057109608241695</v>
+        <v>1.023559288012664</v>
       </c>
       <c r="N19">
-        <v>1.018238707324585</v>
+        <v>1.008480371721472</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036737926142493</v>
+        <v>0.9857658699603562</v>
       </c>
       <c r="D20">
-        <v>1.037622829450908</v>
+        <v>0.9964163109317127</v>
       </c>
       <c r="E20">
-        <v>1.044758973834089</v>
+        <v>1.00263429917322</v>
       </c>
       <c r="F20">
-        <v>1.053478715248084</v>
+        <v>1.008089034990614</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03578955877336</v>
+        <v>1.04096143641945</v>
       </c>
       <c r="J20">
-        <v>1.042929066630884</v>
+        <v>1.013856739261914</v>
       </c>
       <c r="K20">
-        <v>1.040990710374244</v>
+        <v>1.010522469257628</v>
       </c>
       <c r="L20">
-        <v>1.048102197189056</v>
+        <v>1.016630985226407</v>
       </c>
       <c r="M20">
-        <v>1.056792307566303</v>
+        <v>1.021991124258921</v>
       </c>
       <c r="N20">
-        <v>1.01814760256244</v>
+        <v>1.008010330814563</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035466036957898</v>
+        <v>0.9789092230557902</v>
       </c>
       <c r="D21">
-        <v>1.0365146365448</v>
+        <v>0.9907697186995976</v>
       </c>
       <c r="E21">
-        <v>1.043626758979277</v>
+        <v>0.9968971515558679</v>
       </c>
       <c r="F21">
-        <v>1.052239761840338</v>
+        <v>1.001836060372514</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035568364270135</v>
+        <v>1.039295189113505</v>
       </c>
       <c r="J21">
-        <v>1.042055679610153</v>
+        <v>1.009315995219575</v>
       </c>
       <c r="K21">
-        <v>1.040092860448905</v>
+        <v>1.005928097353516</v>
       </c>
       <c r="L21">
-        <v>1.047178742672997</v>
+        <v>1.011937547763816</v>
       </c>
       <c r="M21">
-        <v>1.055760492252203</v>
+        <v>1.01678273131908</v>
       </c>
       <c r="N21">
-        <v>1.017850987581035</v>
+        <v>1.006446930748348</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03466633488956</v>
+        <v>0.9744765091181234</v>
       </c>
       <c r="D22">
-        <v>1.035818170450282</v>
+        <v>0.9871280716454741</v>
       </c>
       <c r="E22">
-        <v>1.04291526451255</v>
+        <v>0.9931978572210951</v>
       </c>
       <c r="F22">
-        <v>1.051461225351996</v>
+        <v>0.9978037569762105</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035427716007766</v>
+        <v>1.038206847087842</v>
       </c>
       <c r="J22">
-        <v>1.041505976142029</v>
+        <v>1.006379316916524</v>
       </c>
       <c r="K22">
-        <v>1.039527992172372</v>
+        <v>1.002958910580393</v>
       </c>
       <c r="L22">
-        <v>1.046597853941507</v>
+        <v>1.008905281068699</v>
       </c>
       <c r="M22">
-        <v>1.055111563393399</v>
+        <v>1.013418847784289</v>
       </c>
       <c r="N22">
-        <v>1.017664168407471</v>
+        <v>1.005435508440752</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035090273843288</v>
+        <v>0.9768383785851317</v>
       </c>
       <c r="D23">
-        <v>1.036187352059185</v>
+        <v>0.9890675802735363</v>
       </c>
       <c r="E23">
-        <v>1.043292405821298</v>
+        <v>0.9951679965562396</v>
       </c>
       <c r="F23">
-        <v>1.051873900431102</v>
+        <v>0.9999512891577023</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035502425548502</v>
+        <v>1.038787768904849</v>
       </c>
       <c r="J23">
-        <v>1.04179743852639</v>
+        <v>1.007944141713112</v>
       </c>
       <c r="K23">
-        <v>1.039827473217833</v>
+        <v>1.004540852157237</v>
       </c>
       <c r="L23">
-        <v>1.046905820322479</v>
+        <v>1.010520741254649</v>
       </c>
       <c r="M23">
-        <v>1.055455590554417</v>
+        <v>1.015210877209992</v>
       </c>
       <c r="N23">
-        <v>1.017763235652866</v>
+        <v>1.005974475908472</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036759249360166</v>
+        <v>0.9858788612757149</v>
       </c>
       <c r="D24">
-        <v>1.037641413534272</v>
+        <v>0.9965094999126894</v>
       </c>
       <c r="E24">
-        <v>1.044777961923459</v>
+        <v>1.002728994992756</v>
       </c>
       <c r="F24">
-        <v>1.053499493998303</v>
+        <v>1.008192238942196</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035793240435907</v>
+        <v>1.040988705448723</v>
       </c>
       <c r="J24">
-        <v>1.042943699436094</v>
+        <v>1.013931542010426</v>
       </c>
       <c r="K24">
-        <v>1.041005756960929</v>
+        <v>1.010598191180745</v>
       </c>
       <c r="L24">
-        <v>1.048117674364912</v>
+        <v>1.016708355313201</v>
       </c>
       <c r="M24">
-        <v>1.056809602963553</v>
+        <v>1.022077000996572</v>
       </c>
       <c r="N24">
-        <v>1.018152569834865</v>
+        <v>1.008036079897041</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038695972742643</v>
+        <v>0.9958839877121559</v>
       </c>
       <c r="D25">
-        <v>1.039330079216957</v>
+        <v>1.004778994573826</v>
       </c>
       <c r="E25">
-        <v>1.046503502895315</v>
+        <v>1.011133894789624</v>
       </c>
       <c r="F25">
-        <v>1.055387844239855</v>
+        <v>1.017351613531218</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036123858119726</v>
+        <v>1.043376043590054</v>
       </c>
       <c r="J25">
-        <v>1.044271398648893</v>
+        <v>1.020550670537824</v>
       </c>
       <c r="K25">
-        <v>1.042371555635523</v>
+        <v>1.017303573048694</v>
       </c>
       <c r="L25">
-        <v>1.049522769730968</v>
+        <v>1.023561795539501</v>
       </c>
       <c r="M25">
-        <v>1.058380060707272</v>
+        <v>1.029686409792306</v>
       </c>
       <c r="N25">
-        <v>1.018602953538678</v>
+        <v>1.010313594481051</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,989 +412,1145 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.05</v>
-      </c>
       <c r="C2">
-        <v>1.003515152195668</v>
+        <v>0.9856954349030191</v>
       </c>
       <c r="D2">
-        <v>1.011110185584547</v>
+        <v>1.000316531826652</v>
       </c>
       <c r="E2">
-        <v>1.017571164575283</v>
+        <v>1.002663626048787</v>
       </c>
       <c r="F2">
-        <v>1.024365964145541</v>
+        <v>1.014081489568961</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.045156023085846</v>
-      </c>
       <c r="J2">
-        <v>1.025591231590811</v>
+        <v>1.008312576332993</v>
       </c>
       <c r="K2">
-        <v>1.022416877781976</v>
+        <v>1.011771458618864</v>
       </c>
       <c r="L2">
-        <v>1.028791014618492</v>
+        <v>1.014085976644535</v>
       </c>
       <c r="M2">
-        <v>1.035495966593184</v>
+        <v>1.025348071671731</v>
       </c>
       <c r="N2">
-        <v>1.012046339396168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.003930162347349</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028633589405761</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.019393068326057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
       <c r="C3">
-        <v>1.008872578896123</v>
+        <v>0.9920174522635223</v>
       </c>
       <c r="D3">
-        <v>1.015567453501163</v>
+        <v>1.005231282686194</v>
       </c>
       <c r="E3">
-        <v>1.022104488022956</v>
+        <v>1.007829219105208</v>
       </c>
       <c r="F3">
-        <v>1.029305391245217</v>
+        <v>1.018756316071342</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.046380976728024</v>
-      </c>
       <c r="J3">
-        <v>1.029124256468084</v>
+        <v>1.012728120615624</v>
       </c>
       <c r="K3">
-        <v>1.0260049465287</v>
+        <v>1.015797663015821</v>
       </c>
       <c r="L3">
-        <v>1.032462139096837</v>
+        <v>1.018362894211759</v>
       </c>
       <c r="M3">
-        <v>1.039576547530545</v>
+        <v>1.029154701873058</v>
       </c>
       <c r="N3">
-        <v>1.013259763939322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.005743027487697</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031646326122207</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.022237371433776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
       <c r="C4">
-        <v>1.012259927007836</v>
+        <v>0.9960013307481961</v>
       </c>
       <c r="D4">
-        <v>1.018391042246316</v>
+        <v>1.008335015362453</v>
       </c>
       <c r="E4">
-        <v>1.024976887305265</v>
+        <v>1.011089693138951</v>
       </c>
       <c r="F4">
-        <v>1.03243501552151</v>
+        <v>1.021712511945816</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.047143738461661</v>
-      </c>
       <c r="J4">
-        <v>1.031355138088326</v>
+        <v>1.015507878945039</v>
       </c>
       <c r="K4">
-        <v>1.028272457273935</v>
+        <v>1.018333874284771</v>
       </c>
       <c r="L4">
-        <v>1.034782926841423</v>
+        <v>1.021056092780697</v>
       </c>
       <c r="M4">
-        <v>1.042157125447467</v>
+        <v>1.031555762615681</v>
       </c>
       <c r="N4">
-        <v>1.014025411147073</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.006879830371928</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.0335466258556</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.02403169892553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.05</v>
-      </c>
       <c r="C5">
-        <v>1.013665771009888</v>
+        <v>0.9976635289128334</v>
       </c>
       <c r="D5">
-        <v>1.019564148318497</v>
+        <v>1.009635158716642</v>
       </c>
       <c r="E5">
-        <v>1.026170423315806</v>
+        <v>1.012452108758176</v>
       </c>
       <c r="F5">
-        <v>1.03373541838759</v>
+        <v>1.022947803548837</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.047457440819826</v>
-      </c>
       <c r="J5">
-        <v>1.03228026276662</v>
+        <v>1.016670211542654</v>
       </c>
       <c r="K5">
-        <v>1.029213220810442</v>
+        <v>1.019396951182872</v>
       </c>
       <c r="L5">
-        <v>1.035745983210232</v>
+        <v>1.022181644357145</v>
       </c>
       <c r="M5">
-        <v>1.043228213375715</v>
+        <v>1.032559077844597</v>
       </c>
       <c r="N5">
-        <v>1.014342777407975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.007355500405544</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.034340689899001</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.024790740984641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.05</v>
-      </c>
       <c r="C6">
-        <v>1.013900773118327</v>
+        <v>0.9979555164542768</v>
       </c>
       <c r="D6">
-        <v>1.019760317006224</v>
+        <v>1.00986804266771</v>
       </c>
       <c r="E6">
-        <v>1.026370017181318</v>
+        <v>1.012692535239324</v>
       </c>
       <c r="F6">
-        <v>1.033952882801225</v>
+        <v>1.023164313576108</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.047509709766025</v>
-      </c>
       <c r="J6">
-        <v>1.032434861815611</v>
+        <v>1.016878293164065</v>
       </c>
       <c r="K6">
-        <v>1.029370459702421</v>
+        <v>1.019589947867822</v>
       </c>
       <c r="L6">
-        <v>1.03590695920842</v>
+        <v>1.022382254848187</v>
       </c>
       <c r="M6">
-        <v>1.043407260307682</v>
+        <v>1.032736612693238</v>
       </c>
       <c r="N6">
-        <v>1.014395804537917</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.007442356347047</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.034481198028593</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.02493613715774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.05</v>
-      </c>
       <c r="C7">
-        <v>1.012278782468848</v>
+        <v>0.9960626133561448</v>
       </c>
       <c r="D7">
-        <v>1.018406771356486</v>
+        <v>1.008394817257301</v>
       </c>
       <c r="E7">
-        <v>1.024992889746754</v>
+        <v>1.011142755588537</v>
       </c>
       <c r="F7">
-        <v>1.03245245084058</v>
+        <v>1.021756365360769</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.047147957286451</v>
-      </c>
       <c r="J7">
-        <v>1.031367549082757</v>
+        <v>1.015561449190561</v>
       </c>
       <c r="K7">
-        <v>1.028285076295498</v>
+        <v>1.018390001387592</v>
       </c>
       <c r="L7">
-        <v>1.034795844144166</v>
+        <v>1.021105575187313</v>
       </c>
       <c r="M7">
-        <v>1.042171490862188</v>
+        <v>1.031596198427363</v>
       </c>
       <c r="N7">
-        <v>1.014029669332255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.006906627345526</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.033578628401351</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.024091932564291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
       <c r="C8">
-        <v>1.005342615955227</v>
+        <v>0.9879060910718623</v>
       </c>
       <c r="D8">
-        <v>1.01262943223842</v>
+        <v>1.002048830490444</v>
       </c>
       <c r="E8">
-        <v>1.019116201791204</v>
+        <v>1.004472669636967</v>
       </c>
       <c r="F8">
-        <v>1.02604943167782</v>
+        <v>1.01571197287186</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.045576301939072</v>
-      </c>
       <c r="J8">
-        <v>1.026796967292673</v>
+        <v>1.009871024575563</v>
       </c>
       <c r="K8">
-        <v>1.023641004782379</v>
+        <v>1.013201120405261</v>
       </c>
       <c r="L8">
-        <v>1.030043311195672</v>
+        <v>1.015592394712011</v>
       </c>
       <c r="M8">
-        <v>1.036887739390513</v>
+        <v>1.026683239708853</v>
       </c>
       <c r="N8">
-        <v>1.012460563658078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.004577443085956</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.029690302358634</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.02042750553883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
       <c r="C9">
-        <v>0.992475597719812</v>
+        <v>0.9725869997549225</v>
       </c>
       <c r="D9">
-        <v>1.001957907775456</v>
+        <v>0.9901681648106367</v>
       </c>
       <c r="E9">
-        <v>1.008266230885915</v>
+        <v>0.9919877536314192</v>
       </c>
       <c r="F9">
-        <v>1.014226673342132</v>
+        <v>1.004450711202769</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.042569096680616</v>
-      </c>
       <c r="J9">
-        <v>1.018296888938829</v>
+        <v>0.9991463566119997</v>
       </c>
       <c r="K9">
-        <v>1.01501929896127</v>
+        <v>1.003422796556606</v>
       </c>
       <c r="L9">
-        <v>1.021226602954382</v>
+        <v>1.005212175435955</v>
       </c>
       <c r="M9">
-        <v>1.02709307384472</v>
+        <v>1.017471989094379</v>
       </c>
       <c r="N9">
-        <v>1.009538345749645</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.000145253886491</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.022400064866777</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.013509878591084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.05</v>
-      </c>
       <c r="C10">
-        <v>0.9834074523951311</v>
+        <v>0.9619212330397051</v>
       </c>
       <c r="D10">
-        <v>0.9944722423633727</v>
+        <v>0.9819661234281796</v>
       </c>
       <c r="E10">
-        <v>1.000658888333495</v>
+        <v>0.9833919895763993</v>
       </c>
       <c r="F10">
-        <v>1.005936096610801</v>
+        <v>0.9967735961903563</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.040390819320341</v>
-      </c>
       <c r="J10">
-        <v>1.012295213504855</v>
+        <v>0.9917315710676002</v>
       </c>
       <c r="K10">
-        <v>1.008942024621447</v>
+        <v>0.9966688021887983</v>
       </c>
       <c r="L10">
-        <v>1.015016256529823</v>
+        <v>0.9980677240725391</v>
       </c>
       <c r="M10">
-        <v>1.02019899380113</v>
+        <v>1.011201349732167</v>
       </c>
       <c r="N10">
-        <v>1.007472765958276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9970859975385234</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.017489909671056</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.008751418001968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.05</v>
-      </c>
       <c r="C11">
-        <v>0.9793505423617501</v>
+        <v>0.9590109727067416</v>
       </c>
       <c r="D11">
-        <v>0.9911326574124606</v>
+        <v>0.9799310107212126</v>
       </c>
       <c r="E11">
-        <v>0.9972658673911577</v>
+        <v>0.981532392037422</v>
       </c>
       <c r="F11">
-        <v>1.002237949778111</v>
+        <v>0.9954786804757159</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.039403085960375</v>
-      </c>
       <c r="J11">
-        <v>1.009608329489915</v>
+        <v>0.990194271026379</v>
       </c>
       <c r="K11">
-        <v>1.006223758928634</v>
+        <v>0.9952415894953748</v>
       </c>
       <c r="L11">
-        <v>1.012239530303296</v>
+        <v>0.9968111912310106</v>
       </c>
       <c r="M11">
-        <v>1.017117784693392</v>
+        <v>1.010486368947169</v>
       </c>
       <c r="N11">
-        <v>1.006547601848454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9966527434499814</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.017371171903221</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.007776318485441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.05</v>
-      </c>
       <c r="C12">
-        <v>0.9778227241086743</v>
+        <v>0.9586498011808241</v>
       </c>
       <c r="D12">
-        <v>0.9898764790042972</v>
+        <v>0.9797990374318428</v>
       </c>
       <c r="E12">
-        <v>0.9959897183925259</v>
+        <v>0.9816069626703284</v>
       </c>
       <c r="F12">
-        <v>1.000846971234835</v>
+        <v>0.9958019758604708</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.039029192659514</v>
-      </c>
       <c r="J12">
-        <v>1.008596252760167</v>
+        <v>0.9903134661247712</v>
       </c>
       <c r="K12">
-        <v>1.005200234158597</v>
+        <v>0.9953237665273345</v>
       </c>
       <c r="L12">
-        <v>1.01119415448933</v>
+        <v>0.9970952365822768</v>
       </c>
       <c r="M12">
-        <v>1.015957962582205</v>
+        <v>1.011010047765746</v>
       </c>
       <c r="N12">
-        <v>1.006199063458311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9968717934403614</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.018118936515741</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.007834424499088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.05</v>
-      </c>
       <c r="C13">
-        <v>0.9781514145754605</v>
+        <v>0.9602768266574516</v>
       </c>
       <c r="D13">
-        <v>0.9901466604521866</v>
+        <v>0.9811730365133184</v>
       </c>
       <c r="E13">
-        <v>0.9962641892844473</v>
+        <v>0.9832182379310466</v>
       </c>
       <c r="F13">
-        <v>1.001146142641926</v>
+        <v>0.9974372662261489</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.039109716405612</v>
-      </c>
       <c r="J13">
-        <v>1.008813996129223</v>
+        <v>0.9917637894897128</v>
       </c>
       <c r="K13">
-        <v>1.005420423644194</v>
+        <v>0.9966247635555786</v>
       </c>
       <c r="L13">
-        <v>1.011419037430258</v>
+        <v>0.998629028902431</v>
       </c>
       <c r="M13">
-        <v>1.016207457032636</v>
+        <v>1.012569529859847</v>
       </c>
       <c r="N13">
-        <v>1.006274052065855</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9976324949747989</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.019633738282446</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.008751752823488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.05</v>
-      </c>
       <c r="C14">
-        <v>0.9792246868412431</v>
+        <v>0.9623072241457296</v>
       </c>
       <c r="D14">
-        <v>0.9910291475143972</v>
+        <v>0.9828120868355485</v>
       </c>
       <c r="E14">
-        <v>0.9971607092656958</v>
+        <v>0.9850324575137048</v>
       </c>
       <c r="F14">
-        <v>1.002123330842507</v>
+        <v>0.9991668370901402</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.03937232464775</v>
-      </c>
       <c r="J14">
-        <v>1.009524962419826</v>
+        <v>0.9933747468351805</v>
       </c>
       <c r="K14">
-        <v>1.006139441273744</v>
+        <v>0.9980829934304576</v>
       </c>
       <c r="L14">
-        <v>1.012153409273269</v>
+        <v>1.000259617327527</v>
       </c>
       <c r="M14">
-        <v>1.017022231492602</v>
+        <v>1.014121472279006</v>
       </c>
       <c r="N14">
-        <v>1.00651889298358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9984078531383955</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.021036434380244</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.009784316897814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.05</v>
-      </c>
       <c r="C15">
-        <v>0.9798831542984556</v>
+        <v>0.9632490772248088</v>
       </c>
       <c r="D15">
-        <v>0.9915707657668024</v>
+        <v>0.9835552907892682</v>
       </c>
       <c r="E15">
-        <v>0.9977109571894532</v>
+        <v>0.9858272990231784</v>
       </c>
       <c r="F15">
-        <v>1.002723080319609</v>
+        <v>0.9998987017709989</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.039533188102451</v>
-      </c>
       <c r="J15">
-        <v>1.009961125291031</v>
+        <v>0.9940739916895838</v>
       </c>
       <c r="K15">
-        <v>1.006580592638274</v>
+        <v>0.9987204449991651</v>
       </c>
       <c r="L15">
-        <v>1.01260400251545</v>
+        <v>1.000948088904154</v>
       </c>
       <c r="M15">
-        <v>1.017522182261519</v>
+        <v>1.014750590450072</v>
       </c>
       <c r="N15">
-        <v>1.00666909092846</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9987219599927218</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.021571712617371</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.010241122099094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.05</v>
-      </c>
       <c r="C16">
-        <v>0.9836738400002881</v>
+        <v>0.9674454666041947</v>
       </c>
       <c r="D16">
-        <v>0.9946917306320431</v>
+        <v>0.9867525964763397</v>
       </c>
       <c r="E16">
-        <v>1.000881906390249</v>
+        <v>0.9891472948916852</v>
       </c>
       <c r="F16">
-        <v>1.006179161163992</v>
+        <v>1.002856418625836</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.040455407489807</v>
-      </c>
       <c r="J16">
-        <v>1.012471609033637</v>
+        <v>0.996931869651556</v>
       </c>
       <c r="K16">
-        <v>1.009120531787912</v>
+        <v>1.001327833610242</v>
       </c>
       <c r="L16">
-        <v>1.015198624997118</v>
+        <v>1.003678039401309</v>
       </c>
       <c r="M16">
-        <v>1.02040138546571</v>
+        <v>1.017137763645461</v>
       </c>
       <c r="N16">
-        <v>1.007533495499647</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.999866654213546</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.023419283045128</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.012088014568041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.05</v>
-      </c>
       <c r="C17">
-        <v>0.9860158447369843</v>
+        <v>0.9696057792514042</v>
       </c>
       <c r="D17">
-        <v>0.9966224823029258</v>
+        <v>0.9883531439688059</v>
       </c>
       <c r="E17">
-        <v>1.002843804825319</v>
+        <v>0.9907492080599896</v>
       </c>
       <c r="F17">
-        <v>1.008317363842357</v>
+        <v>1.004218464776861</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.041021756054785</v>
-      </c>
       <c r="J17">
-        <v>1.014022226840652</v>
+        <v>0.998284237945649</v>
       </c>
       <c r="K17">
-        <v>1.010689991941584</v>
+        <v>1.002568513730704</v>
       </c>
       <c r="L17">
-        <v>1.016802154897069</v>
+        <v>1.004921404941184</v>
       </c>
       <c r="M17">
-        <v>1.02218111440804</v>
+        <v>1.018152931112334</v>
       </c>
       <c r="N17">
-        <v>1.008067295728278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.000340015840338</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.024090945659486</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.012967937258929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.05</v>
-      </c>
       <c r="C18">
-        <v>0.9873694151569933</v>
+        <v>0.9701767900909716</v>
       </c>
       <c r="D18">
-        <v>0.997739246208858</v>
+        <v>0.9886826109561627</v>
       </c>
       <c r="E18">
-        <v>1.003978664521205</v>
+        <v>0.9909638627934881</v>
       </c>
       <c r="F18">
-        <v>1.009554170372086</v>
+        <v>1.004254871106117</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.041347824283511</v>
-      </c>
       <c r="J18">
-        <v>1.014918231953955</v>
+        <v>0.998415835573749</v>
       </c>
       <c r="K18">
-        <v>1.011597117648131</v>
+        <v>1.002699599303368</v>
       </c>
       <c r="L18">
-        <v>1.017729072629612</v>
+        <v>1.004940416221343</v>
       </c>
       <c r="M18">
-        <v>1.023209999405549</v>
+        <v>1.018000561897529</v>
       </c>
       <c r="N18">
-        <v>1.008375704471796</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.000256406910939</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.023729206510361</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.013048614233238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
       <c r="C19">
-        <v>0.9878288688420869</v>
+        <v>0.9694211747748984</v>
       </c>
       <c r="D19">
-        <v>0.9981184651033804</v>
+        <v>0.9879737669947338</v>
       </c>
       <c r="E19">
-        <v>1.004364041750079</v>
+        <v>0.9900201104251644</v>
       </c>
       <c r="F19">
-        <v>1.00997416097821</v>
+        <v>1.003157653810017</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.041458289455254</v>
-      </c>
       <c r="J19">
-        <v>1.015222337768545</v>
+        <v>0.997549636831952</v>
       </c>
       <c r="K19">
-        <v>1.011905037229524</v>
+        <v>1.001937691170625</v>
       </c>
       <c r="L19">
-        <v>1.018043727459247</v>
+        <v>1.00394788054864</v>
       </c>
       <c r="M19">
-        <v>1.023559288012664</v>
+        <v>1.016857851637115</v>
       </c>
       <c r="N19">
-        <v>1.008480371721472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9997394250171339</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.022494311696643</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.012516493402578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
       <c r="C20">
-        <v>0.9857658699603562</v>
+        <v>0.9648325456190767</v>
       </c>
       <c r="D20">
-        <v>0.9964163109317127</v>
+        <v>0.9842351397987853</v>
       </c>
       <c r="E20">
-        <v>1.00263429917322</v>
+        <v>0.9857483163777699</v>
       </c>
       <c r="F20">
-        <v>1.008089034990614</v>
+        <v>0.9988666298069278</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.04096143641945</v>
-      </c>
       <c r="J20">
-        <v>1.013856739261914</v>
+        <v>0.9937898173152513</v>
       </c>
       <c r="K20">
-        <v>1.010522469257628</v>
+        <v>0.9985609776791622</v>
       </c>
       <c r="L20">
-        <v>1.016630985226407</v>
+        <v>1.000046480665369</v>
       </c>
       <c r="M20">
-        <v>1.021991124258921</v>
+        <v>1.012929437481811</v>
       </c>
       <c r="N20">
-        <v>1.008010330814563</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9979530864768561</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.018846723604753</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.010132962833988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.05</v>
-      </c>
       <c r="C21">
-        <v>0.9789092230557902</v>
+        <v>0.9563670482752921</v>
       </c>
       <c r="D21">
-        <v>0.9907697186995976</v>
+        <v>0.9777032537232951</v>
       </c>
       <c r="E21">
-        <v>0.9968971515558679</v>
+        <v>0.9788511281468201</v>
       </c>
       <c r="F21">
-        <v>1.001836060372514</v>
+        <v>0.9926463431378992</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.039295189113505</v>
-      </c>
       <c r="J21">
-        <v>1.009315995219575</v>
+        <v>0.9878095171625166</v>
       </c>
       <c r="K21">
-        <v>1.005928097353516</v>
+        <v>0.9931197259622877</v>
       </c>
       <c r="L21">
-        <v>1.011937547763816</v>
+        <v>0.994244563916602</v>
       </c>
       <c r="M21">
-        <v>1.01678273131908</v>
+        <v>1.007768385048341</v>
       </c>
       <c r="N21">
-        <v>1.006446930748348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.995443337253804</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.014720069312846</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.006288925376797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.05</v>
-      </c>
       <c r="C22">
-        <v>0.9744765091181234</v>
+        <v>0.9509211111427458</v>
       </c>
       <c r="D22">
-        <v>0.9871280716454741</v>
+        <v>0.973510416830205</v>
       </c>
       <c r="E22">
-        <v>0.9931978572210951</v>
+        <v>0.974449280580606</v>
       </c>
       <c r="F22">
-        <v>0.9978037569762105</v>
+        <v>0.9887128599357213</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1.038206847087842</v>
-      </c>
       <c r="J22">
-        <v>1.006379316916524</v>
+        <v>0.9839774796043447</v>
       </c>
       <c r="K22">
-        <v>1.002958910580393</v>
+        <v>0.9896255580676646</v>
       </c>
       <c r="L22">
-        <v>1.008905281068699</v>
+        <v>0.9905444829662136</v>
       </c>
       <c r="M22">
-        <v>1.013418847784289</v>
+        <v>1.00451128313948</v>
       </c>
       <c r="N22">
-        <v>1.005435508440752</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9938362682395666</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.012142189728502</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.003804178473255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.05</v>
-      </c>
       <c r="C23">
-        <v>0.9768383785851317</v>
+        <v>0.9537797459947582</v>
       </c>
       <c r="D23">
-        <v>0.9890675802735363</v>
+        <v>0.97569808333701</v>
       </c>
       <c r="E23">
-        <v>0.9951679965562396</v>
+        <v>0.9767547446748356</v>
       </c>
       <c r="F23">
-        <v>0.9999512891577023</v>
+        <v>0.9907768050820446</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.038787768904849</v>
-      </c>
       <c r="J23">
-        <v>1.007944141713112</v>
+        <v>0.9859774288552816</v>
       </c>
       <c r="K23">
-        <v>1.004540852157237</v>
+        <v>0.9914424588532142</v>
       </c>
       <c r="L23">
-        <v>1.010520741254649</v>
+        <v>0.9924773369719737</v>
       </c>
       <c r="M23">
-        <v>1.015210877209992</v>
+        <v>1.006216110779913</v>
       </c>
       <c r="N23">
-        <v>1.005974475908472</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9946694087108264</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.013491501058762</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.005078866808082</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.05</v>
-      </c>
       <c r="C24">
-        <v>0.9858788612757149</v>
+        <v>0.9647307082006221</v>
       </c>
       <c r="D24">
-        <v>0.9965094999126894</v>
+        <v>0.9841219173675577</v>
       </c>
       <c r="E24">
-        <v>1.002728994992756</v>
+        <v>0.985615642497404</v>
       </c>
       <c r="F24">
-        <v>1.008192238942196</v>
+        <v>0.9987173429095442</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.040988705448723</v>
-      </c>
       <c r="J24">
-        <v>1.013931542010426</v>
+        <v>0.9936574347004785</v>
       </c>
       <c r="K24">
-        <v>1.010598191180745</v>
+        <v>0.9984337281315921</v>
       </c>
       <c r="L24">
-        <v>1.016708355313201</v>
+        <v>0.9999001619214372</v>
       </c>
       <c r="M24">
-        <v>1.022077000996572</v>
+        <v>1.012767020948014</v>
       </c>
       <c r="N24">
-        <v>1.008036079897041</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9978725544246332</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.018676291024486</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.010014599626391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.05</v>
-      </c>
       <c r="C25">
-        <v>0.9958839877121559</v>
+        <v>0.9767310076453665</v>
       </c>
       <c r="D25">
-        <v>1.004778994573826</v>
+        <v>0.9933943607080877</v>
       </c>
       <c r="E25">
-        <v>1.011133894789624</v>
+        <v>0.995364472732987</v>
       </c>
       <c r="F25">
-        <v>1.017351613531218</v>
+        <v>1.007483710878761</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.043376043590054</v>
-      </c>
       <c r="J25">
-        <v>1.020550670537824</v>
+        <v>1.002067668598619</v>
       </c>
       <c r="K25">
-        <v>1.017303573048694</v>
+        <v>1.00609609359559</v>
       </c>
       <c r="L25">
-        <v>1.023561795539501</v>
+        <v>1.00803517805349</v>
       </c>
       <c r="M25">
-        <v>1.029686409792306</v>
+        <v>1.019966952174842</v>
       </c>
       <c r="N25">
-        <v>1.010313594481051</v>
+        <v>1.00136511126139</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.024374709247696</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.01542966113788</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,1133 +424,1355 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9856954349030191</v>
+        <v>0.990155552280736</v>
       </c>
       <c r="D2">
-        <v>1.000316531826652</v>
+        <v>1.004628397977327</v>
       </c>
       <c r="E2">
-        <v>1.002663626048787</v>
+        <v>1.006559937916761</v>
       </c>
       <c r="F2">
-        <v>1.014081489568961</v>
+        <v>1.017155831069344</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="J2">
-        <v>1.008312576332993</v>
+        <v>1.012634749582911</v>
       </c>
       <c r="K2">
-        <v>1.011771458618864</v>
+        <v>1.016023626282946</v>
       </c>
       <c r="L2">
-        <v>1.014085976644535</v>
+        <v>1.017928632686834</v>
       </c>
       <c r="M2">
-        <v>1.025348071671731</v>
+        <v>1.028381221948897</v>
       </c>
       <c r="N2">
-        <v>1.003930162347349</v>
+        <v>1.008903484171047</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028633589405761</v>
+        <v>1.031034160711497</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.019393068326057</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.022408857711083</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.015315348495331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9920174522635223</v>
+        <v>0.9956034225724631</v>
       </c>
       <c r="D3">
-        <v>1.005231282686194</v>
+        <v>1.008620446386465</v>
       </c>
       <c r="E3">
-        <v>1.007829219105208</v>
+        <v>1.010979063640082</v>
       </c>
       <c r="F3">
-        <v>1.018756316071342</v>
+        <v>1.021237461943135</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="J3">
-        <v>1.012728120615624</v>
+        <v>1.016214664542339</v>
       </c>
       <c r="K3">
-        <v>1.015797663015821</v>
+        <v>1.019144202522757</v>
       </c>
       <c r="L3">
-        <v>1.018362894211759</v>
+        <v>1.02147336650141</v>
       </c>
       <c r="M3">
-        <v>1.029154701873058</v>
+        <v>1.031605629641411</v>
       </c>
       <c r="N3">
-        <v>1.005743027487697</v>
+        <v>1.010047740186684</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031646326122207</v>
+        <v>1.033586092647474</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.022237371433776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.024612462657394</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.016174179624926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9960013307481961</v>
+        <v>0.9990497581322534</v>
       </c>
       <c r="D4">
-        <v>1.008335015362453</v>
+        <v>1.011152040572467</v>
       </c>
       <c r="E4">
-        <v>1.011089693138951</v>
+        <v>1.01378032322786</v>
       </c>
       <c r="F4">
-        <v>1.021712511945816</v>
+        <v>1.02382891921013</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="J4">
-        <v>1.015507878945039</v>
+        <v>1.018477802467524</v>
       </c>
       <c r="K4">
-        <v>1.018333874284771</v>
+        <v>1.021117708087003</v>
       </c>
       <c r="L4">
-        <v>1.021056092780697</v>
+        <v>1.02371522892094</v>
       </c>
       <c r="M4">
-        <v>1.031555762615681</v>
+        <v>1.033648011253259</v>
       </c>
       <c r="N4">
-        <v>1.006879830371928</v>
+        <v>1.01076875432739</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.0335466258556</v>
+        <v>1.035202514602532</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.02403169892553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.026008948467104</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.016713055093105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9976635289128334</v>
+        <v>1.000489644459607</v>
       </c>
       <c r="D5">
-        <v>1.009635158716642</v>
+        <v>1.012214726140232</v>
       </c>
       <c r="E5">
-        <v>1.012452108758176</v>
+        <v>1.014952722160531</v>
       </c>
       <c r="F5">
-        <v>1.022947803548837</v>
+        <v>1.024913343132275</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="J5">
-        <v>1.016670211542654</v>
+        <v>1.019425833500845</v>
       </c>
       <c r="K5">
-        <v>1.019396951182872</v>
+        <v>1.021946971458196</v>
       </c>
       <c r="L5">
-        <v>1.022181644357145</v>
+        <v>1.024653808235766</v>
       </c>
       <c r="M5">
-        <v>1.032559077844597</v>
+        <v>1.034502801657649</v>
       </c>
       <c r="N5">
-        <v>1.007355500405544</v>
+        <v>1.011071194836412</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.034340689899001</v>
+        <v>1.035879028592563</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.024790740984641</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.026603346148845</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.016939650198857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9979555164542768</v>
+        <v>1.000741477687237</v>
       </c>
       <c r="D6">
-        <v>1.00986804266771</v>
+        <v>1.012404967630037</v>
       </c>
       <c r="E6">
-        <v>1.012692535239324</v>
+        <v>1.015158724005595</v>
       </c>
       <c r="F6">
-        <v>1.023164313576108</v>
+        <v>1.025102545162248</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="J6">
-        <v>1.016878293164065</v>
+        <v>1.019595139504069</v>
       </c>
       <c r="K6">
-        <v>1.019589947867822</v>
+        <v>1.022097953996731</v>
       </c>
       <c r="L6">
-        <v>1.022382254848187</v>
+        <v>1.024820521446748</v>
       </c>
       <c r="M6">
-        <v>1.032736612693238</v>
+        <v>1.034653434203749</v>
       </c>
       <c r="N6">
-        <v>1.007442356347047</v>
+        <v>1.011126390744392</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.034481198028593</v>
+        <v>1.035998244913921</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.02493613715774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.026719884837116</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.016982311521123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9960626133561448</v>
+        <v>0.9991132020818438</v>
       </c>
       <c r="D7">
-        <v>1.008394817257301</v>
+        <v>1.011212214073601</v>
       </c>
       <c r="E7">
-        <v>1.011142755588537</v>
+        <v>1.013835878349199</v>
       </c>
       <c r="F7">
-        <v>1.021756365360769</v>
+        <v>1.023874605314439</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="J7">
-        <v>1.015561449190561</v>
+        <v>1.018533520468138</v>
       </c>
       <c r="K7">
-        <v>1.018390001387592</v>
+        <v>1.021174218428575</v>
       </c>
       <c r="L7">
-        <v>1.021105575187313</v>
+        <v>1.02376718956561</v>
       </c>
       <c r="M7">
-        <v>1.031596198427363</v>
+        <v>1.033690269522607</v>
       </c>
       <c r="N7">
-        <v>1.006906627345526</v>
+        <v>1.010817721965096</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.033578628401351</v>
+        <v>1.035235959436789</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.024091932564291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.026071410810467</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.016734292446387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9879060910718623</v>
+        <v>0.9920962128072747</v>
       </c>
       <c r="D8">
-        <v>1.002048830490444</v>
+        <v>1.006069914147581</v>
       </c>
       <c r="E8">
-        <v>1.004472669636967</v>
+        <v>1.008141370623335</v>
       </c>
       <c r="F8">
-        <v>1.01571197287186</v>
+        <v>1.018604744168171</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="J8">
-        <v>1.009871024575563</v>
+        <v>1.013936198085833</v>
       </c>
       <c r="K8">
-        <v>1.013201120405261</v>
+        <v>1.017168287581076</v>
       </c>
       <c r="L8">
-        <v>1.015592394712011</v>
+        <v>1.019212179715823</v>
       </c>
       <c r="M8">
-        <v>1.026683239708853</v>
+        <v>1.029538464290658</v>
       </c>
       <c r="N8">
-        <v>1.004577443085956</v>
+        <v>1.009409832059033</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029690302358634</v>
+        <v>1.031950052070888</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.02042750553883</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.02324395273844</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.015642397822329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9725869997549225</v>
+        <v>0.9789941898606532</v>
       </c>
       <c r="D9">
-        <v>0.9901681648106367</v>
+        <v>0.9964960045093455</v>
       </c>
       <c r="E9">
-        <v>0.9919877536314192</v>
+        <v>0.9975484378361366</v>
       </c>
       <c r="F9">
-        <v>1.004450711202769</v>
+        <v>1.008848150878612</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="J9">
-        <v>0.9991463566119997</v>
+        <v>1.00531116470234</v>
       </c>
       <c r="K9">
-        <v>1.003422796556606</v>
+        <v>1.009646188571659</v>
       </c>
       <c r="L9">
-        <v>1.005212175435955</v>
+        <v>1.010681415546471</v>
       </c>
       <c r="M9">
-        <v>1.017471989094379</v>
+        <v>1.021799285822371</v>
       </c>
       <c r="N9">
-        <v>1.000145253886491</v>
+        <v>1.006648771357213</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.022400064866777</v>
+        <v>1.025824910351623</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.013509878591084</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.017921569739177</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.013545726819277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9619212330397051</v>
+        <v>0.9700125250410416</v>
       </c>
       <c r="D10">
-        <v>0.9819661234281796</v>
+        <v>0.9900057271004542</v>
       </c>
       <c r="E10">
-        <v>0.9833919895763993</v>
+        <v>0.9903882222321182</v>
       </c>
       <c r="F10">
-        <v>0.9967735961903563</v>
+        <v>1.002313065282227</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="J10">
-        <v>0.9917315710676002</v>
+        <v>0.9994685871307097</v>
       </c>
       <c r="K10">
-        <v>0.9966688021887983</v>
+        <v>1.00455780671265</v>
       </c>
       <c r="L10">
-        <v>0.9980677240725391</v>
+        <v>1.004933216324411</v>
       </c>
       <c r="M10">
-        <v>1.011201349732167</v>
+        <v>1.016640681833055</v>
       </c>
       <c r="N10">
-        <v>0.9970859975385234</v>
+        <v>1.004907508448631</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.017489909671056</v>
+        <v>1.02179462474899</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.008751418001968</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.014342578016257</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.012130662939292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9590109727067416</v>
+        <v>0.9675210788919517</v>
       </c>
       <c r="D11">
-        <v>0.9799310107212126</v>
+        <v>0.988400292475803</v>
       </c>
       <c r="E11">
-        <v>0.981532392037422</v>
+        <v>0.9888683038493653</v>
       </c>
       <c r="F11">
-        <v>0.9954786804757159</v>
+        <v>1.001285873405789</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="J11">
-        <v>0.990194271026379</v>
+        <v>0.9983103462380859</v>
       </c>
       <c r="K11">
-        <v>0.9952415894953748</v>
+        <v>1.003544328595835</v>
       </c>
       <c r="L11">
-        <v>0.9968111912310106</v>
+        <v>1.00400324588185</v>
       </c>
       <c r="M11">
-        <v>1.010486368947169</v>
+        <v>1.016183580711472</v>
       </c>
       <c r="N11">
-        <v>0.9966527434499814</v>
+        <v>1.004919779678023</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.017371171903221</v>
+        <v>1.021877604856242</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.007776318485441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.013663075218812</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01197589540134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9586498011808241</v>
+        <v>0.9671368458066582</v>
       </c>
       <c r="D12">
-        <v>0.9797990374318428</v>
+        <v>0.9882567133709773</v>
       </c>
       <c r="E12">
-        <v>0.9816069626703284</v>
+        <v>0.9889053235425966</v>
       </c>
       <c r="F12">
-        <v>0.9958019758604708</v>
+        <v>1.001578931154171</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="J12">
-        <v>0.9903134661247712</v>
+        <v>0.9984002258240583</v>
       </c>
       <c r="K12">
-        <v>0.9953237665273345</v>
+        <v>1.003612408304827</v>
       </c>
       <c r="L12">
-        <v>0.9970952365822768</v>
+        <v>1.004248212188676</v>
       </c>
       <c r="M12">
-        <v>1.011010047765746</v>
+        <v>1.016675943724637</v>
       </c>
       <c r="N12">
-        <v>0.9968717934403614</v>
+        <v>1.005168546227764</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.018118936515741</v>
+        <v>1.022599021325489</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.007834424499088</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.013711211395626</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.012091378579663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9602768266574516</v>
+        <v>0.9683658003173305</v>
       </c>
       <c r="D13">
-        <v>0.9811730365133184</v>
+        <v>0.9892483325430723</v>
       </c>
       <c r="E13">
-        <v>0.9832182379310466</v>
+        <v>0.9901563876434089</v>
       </c>
       <c r="F13">
-        <v>0.9974372662261489</v>
+        <v>1.002929748389615</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="J13">
-        <v>0.9917637894897128</v>
+        <v>0.9994742810835621</v>
       </c>
       <c r="K13">
-        <v>0.9966247635555786</v>
+        <v>1.004539720373584</v>
       </c>
       <c r="L13">
-        <v>0.998629028902431</v>
+        <v>1.005429960223631</v>
       </c>
       <c r="M13">
-        <v>1.012569529859847</v>
+        <v>1.017957187420343</v>
       </c>
       <c r="N13">
-        <v>0.9976324949747989</v>
+        <v>1.005586874564445</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.019633738282446</v>
+        <v>1.023892713729306</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.008751752823488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.014364060076182</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.012430867574713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9623072241457296</v>
+        <v>0.9699538576958691</v>
       </c>
       <c r="D14">
-        <v>0.9828120868355485</v>
+        <v>0.990457257813667</v>
       </c>
       <c r="E14">
-        <v>0.9850324575137048</v>
+        <v>0.9915783277249022</v>
       </c>
       <c r="F14">
-        <v>0.9991668370901402</v>
+        <v>1.004349883436422</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="J14">
-        <v>0.9933747468351805</v>
+        <v>1.000669832714363</v>
       </c>
       <c r="K14">
-        <v>0.9980829934304576</v>
+        <v>1.005578616806545</v>
       </c>
       <c r="L14">
-        <v>1.000259617327527</v>
+        <v>1.006678011384847</v>
       </c>
       <c r="M14">
-        <v>1.014121472279006</v>
+        <v>1.019207092771116</v>
       </c>
       <c r="N14">
-        <v>0.9984078531383955</v>
+        <v>1.005958356800231</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.021036434380244</v>
+        <v>1.025056095270675</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.009784316897814</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.015100224627294</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.01277125902045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9632490772248088</v>
+        <v>0.9707068737151466</v>
       </c>
       <c r="D15">
-        <v>0.9835552907892682</v>
+        <v>0.9910149109208548</v>
       </c>
       <c r="E15">
-        <v>0.9858272990231784</v>
+        <v>0.9922082126510738</v>
       </c>
       <c r="F15">
-        <v>0.9998987017709989</v>
+        <v>1.004951494935157</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="J15">
-        <v>0.9940739916895838</v>
+        <v>1.001192363196205</v>
       </c>
       <c r="K15">
-        <v>0.9987204449991651</v>
+        <v>1.006035403234382</v>
       </c>
       <c r="L15">
-        <v>1.000948088904154</v>
+        <v>1.007205827789417</v>
       </c>
       <c r="M15">
-        <v>1.014750590450072</v>
+        <v>1.019709221536894</v>
       </c>
       <c r="N15">
-        <v>0.9987219599927218</v>
+        <v>1.006095164416787</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.021571712617371</v>
+        <v>1.025490897768522</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.010241122099094</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.015429814531726</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.012909199974066</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9674454666041947</v>
+        <v>0.9741720673077724</v>
       </c>
       <c r="D16">
-        <v>0.9867525964763397</v>
+        <v>0.993478914555011</v>
       </c>
       <c r="E16">
-        <v>0.9891472948916852</v>
+        <v>0.9949041134396487</v>
       </c>
       <c r="F16">
-        <v>1.002856418625836</v>
+        <v>1.007414634107404</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="J16">
-        <v>0.996931869651556</v>
+        <v>1.003369064542925</v>
       </c>
       <c r="K16">
-        <v>1.001327833610242</v>
+        <v>1.007929888675456</v>
       </c>
       <c r="L16">
-        <v>1.003678039401309</v>
+        <v>1.009329039007092</v>
       </c>
       <c r="M16">
-        <v>1.017137763645461</v>
+        <v>1.021615004933487</v>
       </c>
       <c r="N16">
-        <v>0.999866654213546</v>
+        <v>1.006542527188374</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.023419283045128</v>
+        <v>1.026958095780049</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.012088014568041</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.016772879352972</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.013408831850393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9696057792514042</v>
+        <v>0.9760186029208889</v>
       </c>
       <c r="D17">
-        <v>0.9883531439688059</v>
+        <v>0.9947552359297172</v>
       </c>
       <c r="E17">
-        <v>0.9907492080599896</v>
+        <v>0.9962463745762506</v>
       </c>
       <c r="F17">
-        <v>1.004218464776861</v>
+        <v>1.008569869657431</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="J17">
-        <v>0.998284237945649</v>
+        <v>1.004430600266024</v>
       </c>
       <c r="K17">
-        <v>1.002568513730704</v>
+        <v>1.008855854064134</v>
       </c>
       <c r="L17">
-        <v>1.004921404941184</v>
+        <v>1.010320540103801</v>
       </c>
       <c r="M17">
-        <v>1.018152931112334</v>
+        <v>1.02242928818791</v>
       </c>
       <c r="N17">
-        <v>1.000340015840338</v>
+        <v>1.006726341209362</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.024090945659486</v>
+        <v>1.027471324455497</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.012967937258929</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.017430496095742</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.013620023825871</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9701767900909716</v>
+        <v>0.976587055239027</v>
       </c>
       <c r="D18">
-        <v>0.9886826109561627</v>
+        <v>0.9950680573225803</v>
       </c>
       <c r="E18">
-        <v>0.9909638627934881</v>
+        <v>0.9964734755907482</v>
       </c>
       <c r="F18">
-        <v>1.004254871106117</v>
+        <v>1.008614762969411</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="J18">
-        <v>0.998415835573749</v>
+        <v>1.004564718249263</v>
       </c>
       <c r="K18">
-        <v>1.002699599303368</v>
+        <v>1.008972469055539</v>
       </c>
       <c r="L18">
-        <v>1.004940416221343</v>
+        <v>1.010353360360005</v>
       </c>
       <c r="M18">
-        <v>1.018000561897529</v>
+        <v>1.022286432972035</v>
       </c>
       <c r="N18">
-        <v>1.000256406910939</v>
+        <v>1.006637211661016</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.023729206510361</v>
+        <v>1.027117830430688</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.013048614233238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.017499855937408</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.013578736869332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9694211747748984</v>
+        <v>0.9760641110870883</v>
       </c>
       <c r="D19">
-        <v>0.9879737669947338</v>
+        <v>0.9945791577214854</v>
       </c>
       <c r="E19">
-        <v>0.9900201104251644</v>
+        <v>0.9957464059749562</v>
       </c>
       <c r="F19">
-        <v>1.003157653810017</v>
+        <v>1.007688572635417</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="J19">
-        <v>0.997549636831952</v>
+        <v>1.003922796428199</v>
       </c>
       <c r="K19">
-        <v>1.001937691170625</v>
+        <v>1.008427072840923</v>
       </c>
       <c r="L19">
-        <v>1.00394788054864</v>
+        <v>1.009574028068086</v>
       </c>
       <c r="M19">
-        <v>1.016857851637115</v>
+        <v>1.021312059398974</v>
       </c>
       <c r="N19">
-        <v>0.9997394250171339</v>
+        <v>1.006317762428154</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.022494311696643</v>
+        <v>1.026017218773252</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.012516493402578</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.01712143264834</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.013342052058114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9648325456190767</v>
+        <v>0.9724022652314045</v>
       </c>
       <c r="D20">
-        <v>0.9842351397987853</v>
+        <v>0.9917547272360578</v>
       </c>
       <c r="E20">
-        <v>0.9857483163777699</v>
+        <v>0.9922953050507012</v>
       </c>
       <c r="F20">
-        <v>0.9988666298069278</v>
+        <v>1.004049672881898</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="J20">
-        <v>0.9937898173152513</v>
+        <v>1.001040108449221</v>
       </c>
       <c r="K20">
-        <v>0.9985609776791622</v>
+        <v>1.005944125997439</v>
       </c>
       <c r="L20">
-        <v>1.000046480665369</v>
+        <v>1.006474998803758</v>
       </c>
       <c r="M20">
-        <v>1.012929437481811</v>
+        <v>1.018021685490523</v>
       </c>
       <c r="N20">
-        <v>0.9979530864768561</v>
+        <v>1.005312955821383</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.018846723604753</v>
+        <v>1.022876801615913</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.010132962833988</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.01537028160748</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.012524117078532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9563670482752921</v>
+        <v>0.9655462035912327</v>
       </c>
       <c r="D21">
-        <v>0.9777032537232951</v>
+        <v>0.9868168187757973</v>
       </c>
       <c r="E21">
-        <v>0.9788511281468201</v>
+        <v>0.9867939697976494</v>
       </c>
       <c r="F21">
-        <v>0.9926463431378992</v>
+        <v>0.9989360576581723</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="J21">
-        <v>0.9878095171625166</v>
+        <v>0.9965585510394185</v>
       </c>
       <c r="K21">
-        <v>0.9931197259622877</v>
+        <v>1.002052330176634</v>
       </c>
       <c r="L21">
-        <v>0.994244563916602</v>
+        <v>1.002029929407155</v>
       </c>
       <c r="M21">
-        <v>1.007768385048341</v>
+        <v>1.013937614827242</v>
       </c>
       <c r="N21">
-        <v>0.995443337253804</v>
+        <v>1.004321853101772</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.014720069312846</v>
+        <v>1.019602766156163</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.006288925376797</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.012622220474697</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.011447550418362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9509211111427458</v>
+        <v>0.9611612484435164</v>
       </c>
       <c r="D22">
-        <v>0.973510416830205</v>
+        <v>0.9836685053050658</v>
       </c>
       <c r="E22">
-        <v>0.974449280580606</v>
+        <v>0.9833121366071224</v>
       </c>
       <c r="F22">
-        <v>0.9887128599357213</v>
+        <v>0.9957318539305884</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="J22">
-        <v>0.9839774796043447</v>
+        <v>0.9937060965304714</v>
       </c>
       <c r="K22">
-        <v>0.9896255580676646</v>
+        <v>0.999570586430547</v>
       </c>
       <c r="L22">
-        <v>0.9905444829662136</v>
+        <v>0.9992215939754994</v>
       </c>
       <c r="M22">
-        <v>1.00451128313948</v>
+        <v>1.011388340472609</v>
       </c>
       <c r="N22">
-        <v>0.9938362682395666</v>
+        <v>1.0036901666574</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.012142189728502</v>
+        <v>1.017585122570712</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.003804178473255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.010852194581678</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.010762023046743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9537797459947582</v>
+        <v>0.9634389974292544</v>
       </c>
       <c r="D23">
-        <v>0.97569808333701</v>
+        <v>0.9852863216111076</v>
       </c>
       <c r="E23">
-        <v>0.9767547446748356</v>
+        <v>0.9851114941699829</v>
       </c>
       <c r="F23">
-        <v>0.9907768050820446</v>
+        <v>0.9973951280752116</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="J23">
-        <v>0.9859774288552816</v>
+        <v>0.9951701104815391</v>
       </c>
       <c r="K23">
-        <v>0.9914424588532142</v>
+        <v>1.000835286891216</v>
       </c>
       <c r="L23">
-        <v>0.9924773369719737</v>
+        <v>1.000663977653883</v>
       </c>
       <c r="M23">
-        <v>1.006216110779913</v>
+        <v>1.012704352662417</v>
       </c>
       <c r="N23">
-        <v>0.9946694087108264</v>
+        <v>1.003959826202673</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.013491501058762</v>
+        <v>1.018626691712765</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.005078866808082</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.011735518084394</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.011102062967851</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9647307082006221</v>
+        <v>0.9723357861627415</v>
       </c>
       <c r="D24">
-        <v>0.9841219173675577</v>
+        <v>0.9916745967915426</v>
       </c>
       <c r="E24">
-        <v>0.985615642497404</v>
+        <v>0.9921954754486594</v>
       </c>
       <c r="F24">
-        <v>0.9987173429095442</v>
+        <v>1.003926490769394</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="J24">
-        <v>0.9936574347004785</v>
+        <v>1.00094196743662</v>
       </c>
       <c r="K24">
-        <v>0.9984337281315921</v>
+        <v>1.005849510471964</v>
       </c>
       <c r="L24">
-        <v>0.9999001619214372</v>
+        <v>1.00636104766618</v>
       </c>
       <c r="M24">
-        <v>1.012767020948014</v>
+        <v>1.017885001923441</v>
       </c>
       <c r="N24">
-        <v>0.9978725544246332</v>
+        <v>1.005260303053866</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.018676291024486</v>
+        <v>1.022726945237148</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.010014599626391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.015272466148761</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.012481005569541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9767310076453665</v>
+        <v>0.9824983261061749</v>
       </c>
       <c r="D25">
-        <v>0.9933943607080877</v>
+        <v>0.9990661291284619</v>
       </c>
       <c r="E25">
-        <v>0.995364472732987</v>
+        <v>1.000377637529944</v>
       </c>
       <c r="F25">
-        <v>1.007483710878761</v>
+        <v>1.011445908873895</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="J25">
-        <v>1.002067668598619</v>
+        <v>1.007629396048589</v>
       </c>
       <c r="K25">
-        <v>1.00609609359559</v>
+        <v>1.011678959558284</v>
       </c>
       <c r="L25">
-        <v>1.00803517805349</v>
+        <v>1.012970093989413</v>
       </c>
       <c r="M25">
-        <v>1.019966952174842</v>
+        <v>1.023869102767901</v>
       </c>
       <c r="N25">
-        <v>1.00136511126139</v>
+        <v>1.007365484899829</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.024374709247696</v>
+        <v>1.02746306399131</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.01542966113788</v>
+        <v>1.019391085009085</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.014120704955839</v>
       </c>
     </row>
   </sheetData>
